--- a/processed_data.xlsx
+++ b/processed_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="merged_data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/processed_data.xlsx
+++ b/processed_data.xlsx
@@ -702,19 +702,19 @@
         </is>
       </c>
       <c r="AA2" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AB2" t="n">
         <v>17</v>
       </c>
       <c r="AC2" t="n">
-        <v>237054</v>
+        <v>237229</v>
       </c>
       <c r="AD2" t="n">
-        <v>1433761</v>
+        <v>1434888</v>
       </c>
       <c r="AE2" t="n">
-        <v>2522600</v>
+        <v>2524779</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -829,19 +829,19 @@
         </is>
       </c>
       <c r="AA3" t="n">
-        <v>4695</v>
+        <v>4670</v>
       </c>
       <c r="AB3" t="n">
         <v>1370</v>
       </c>
       <c r="AC3" t="n">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="AD3" t="n">
-        <v>86305</v>
+        <v>86319</v>
       </c>
       <c r="AE3" t="n">
-        <v>189192</v>
+        <v>189276</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -952,19 +952,19 @@
         </is>
       </c>
       <c r="AA4" t="n">
-        <v>2955</v>
+        <v>2934</v>
       </c>
       <c r="AB4" t="n">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="AC4" t="n">
         <v>260</v>
       </c>
       <c r="AD4" t="n">
-        <v>27834</v>
+        <v>27840</v>
       </c>
       <c r="AE4" t="n">
-        <v>56599</v>
+        <v>56606</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1079,19 +1079,19 @@
         </is>
       </c>
       <c r="AA5" t="n">
-        <v>3951</v>
+        <v>3935</v>
       </c>
       <c r="AB5" t="n">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="AC5" t="n">
         <v>472</v>
       </c>
       <c r="AD5" t="n">
-        <v>55031</v>
+        <v>55040</v>
       </c>
       <c r="AE5" t="n">
-        <v>114589</v>
+        <v>114627</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1208,13 +1208,13 @@
         <v>208</v>
       </c>
       <c r="AC6" t="n">
-        <v>14408</v>
+        <v>14410</v>
       </c>
       <c r="AD6" t="n">
-        <v>539696</v>
+        <v>539935</v>
       </c>
       <c r="AE6" t="n">
-        <v>911525</v>
+        <v>912054</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1325,19 +1325,19 @@
         </is>
       </c>
       <c r="AA7" t="n">
-        <v>4177</v>
+        <v>4208</v>
       </c>
       <c r="AB7" t="n">
-        <v>2663</v>
+        <v>2667</v>
       </c>
       <c r="AC7" t="n">
         <v>186</v>
       </c>
       <c r="AD7" t="n">
-        <v>42394</v>
+        <v>42403</v>
       </c>
       <c r="AE7" t="n">
-        <v>76339</v>
+        <v>76354</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>6.49</v>
+        <v>6.48</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1452,19 +1452,19 @@
         </is>
       </c>
       <c r="AA8" t="n">
-        <v>7210</v>
+        <v>7292</v>
       </c>
       <c r="AB8" t="n">
-        <v>5477</v>
+        <v>5478</v>
       </c>
       <c r="AC8" t="n">
         <v>14</v>
       </c>
       <c r="AD8" t="n">
-        <v>6444</v>
+        <v>6447</v>
       </c>
       <c r="AE8" t="n">
-        <v>17540</v>
+        <v>17554</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1579,19 +1579,19 @@
         </is>
       </c>
       <c r="AA9" t="n">
-        <v>10791</v>
+        <v>10810</v>
       </c>
       <c r="AB9" t="n">
-        <v>5347</v>
+        <v>5349</v>
       </c>
       <c r="AC9" t="n">
         <v>22</v>
       </c>
       <c r="AD9" t="n">
-        <v>7310</v>
+        <v>7313</v>
       </c>
       <c r="AE9" t="n">
-        <v>18711</v>
+        <v>18718</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -1706,19 +1706,19 @@
         </is>
       </c>
       <c r="AA10" t="n">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AB10" t="n">
         <v>716</v>
       </c>
       <c r="AC10" t="n">
-        <v>8827</v>
+        <v>8828</v>
       </c>
       <c r="AD10" t="n">
-        <v>146166</v>
+        <v>146223</v>
       </c>
       <c r="AE10" t="n">
-        <v>359363</v>
+        <v>359562</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -1833,19 +1833,19 @@
         </is>
       </c>
       <c r="AA11" t="n">
-        <v>2813</v>
+        <v>2835</v>
       </c>
       <c r="AB11" t="n">
         <v>943</v>
       </c>
       <c r="AC11" t="n">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="AD11" t="n">
-        <v>131780</v>
+        <v>131797</v>
       </c>
       <c r="AE11" t="n">
-        <v>277596</v>
+        <v>277635</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -1960,19 +1960,19 @@
         </is>
       </c>
       <c r="AA12" t="n">
-        <v>4391</v>
+        <v>4371</v>
       </c>
       <c r="AB12" t="n">
-        <v>2484</v>
+        <v>2488</v>
       </c>
       <c r="AC12" t="n">
         <v>445</v>
       </c>
       <c r="AD12" t="n">
-        <v>31554</v>
+        <v>31566</v>
       </c>
       <c r="AE12" t="n">
-        <v>85644</v>
+        <v>85700</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="AA13" t="n">
-        <v>2458</v>
+        <v>2443</v>
       </c>
       <c r="AB13" t="n">
         <v>484</v>
@@ -2096,10 +2096,10 @@
         <v>4174</v>
       </c>
       <c r="AD13" t="n">
-        <v>260340</v>
+        <v>260389</v>
       </c>
       <c r="AE13" t="n">
-        <v>499813</v>
+        <v>500003</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2214,19 +2214,19 @@
         </is>
       </c>
       <c r="AA14" t="n">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="AB14" t="n">
         <v>1136</v>
       </c>
       <c r="AC14" t="n">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="AD14" t="n">
-        <v>106077</v>
+        <v>106085</v>
       </c>
       <c r="AE14" t="n">
-        <v>232527</v>
+        <v>232604</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -2341,19 +2341,19 @@
         </is>
       </c>
       <c r="AA15" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB15" t="n">
         <v>42</v>
       </c>
       <c r="AC15" t="n">
-        <v>86255</v>
+        <v>86295</v>
       </c>
       <c r="AD15" t="n">
-        <v>1014558</v>
+        <v>1015015</v>
       </c>
       <c r="AE15" t="n">
-        <v>1965187</v>
+        <v>1966181</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
@@ -2464,19 +2464,19 @@
         </is>
       </c>
       <c r="AA16" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AB16" t="n">
         <v>639</v>
       </c>
       <c r="AC16" t="n">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="AD16" t="n">
-        <v>224491</v>
+        <v>224575</v>
       </c>
       <c r="AE16" t="n">
-        <v>396379</v>
+        <v>396555</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
@@ -2591,19 +2591,19 @@
         </is>
       </c>
       <c r="AA17" t="n">
-        <v>5915</v>
+        <v>5919</v>
       </c>
       <c r="AB17" t="n">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="AC17" t="n">
         <v>199</v>
       </c>
       <c r="AD17" t="n">
-        <v>31399</v>
+        <v>31398</v>
       </c>
       <c r="AE17" t="n">
-        <v>78040</v>
+        <v>78057</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
@@ -2718,19 +2718,19 @@
         </is>
       </c>
       <c r="AA18" t="n">
-        <v>3643</v>
+        <v>3617</v>
       </c>
       <c r="AB18" t="n">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="AC18" t="n">
         <v>1281</v>
       </c>
       <c r="AD18" t="n">
-        <v>100497</v>
+        <v>100499</v>
       </c>
       <c r="AE18" t="n">
-        <v>188739</v>
+        <v>188790</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
@@ -2845,19 +2845,19 @@
         </is>
       </c>
       <c r="AA19" t="n">
-        <v>6887</v>
+        <v>6900</v>
       </c>
       <c r="AB19" t="n">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AC19" t="n">
         <v>360</v>
       </c>
       <c r="AD19" t="n">
-        <v>81363</v>
+        <v>81380</v>
       </c>
       <c r="AE19" t="n">
-        <v>153401</v>
+        <v>153499</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="AA20" t="n">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="AB20" t="n">
         <v>466</v>
       </c>
       <c r="AC20" t="n">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="AD20" t="n">
-        <v>247023</v>
+        <v>247060</v>
       </c>
       <c r="AE20" t="n">
-        <v>514273</v>
+        <v>514432</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
@@ -3099,19 +3099,19 @@
         </is>
       </c>
       <c r="AA21" t="n">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="AB21" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AC21" t="n">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="AD21" t="n">
-        <v>151482</v>
+        <v>151505</v>
       </c>
       <c r="AE21" t="n">
-        <v>268022</v>
+        <v>268113</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="AA22" t="n">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AB22" t="n">
         <v>874</v>
@@ -3235,10 +3235,10 @@
         <v>2983</v>
       </c>
       <c r="AD22" t="n">
-        <v>178880</v>
+        <v>178910</v>
       </c>
       <c r="AE22" t="n">
-        <v>304856</v>
+        <v>304988</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="AA23" t="n">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AB23" t="n">
         <v>944</v>
@@ -3362,10 +3362,10 @@
         <v>4172</v>
       </c>
       <c r="AD23" t="n">
-        <v>85543</v>
+        <v>85567</v>
       </c>
       <c r="AE23" t="n">
-        <v>277422</v>
+        <v>277575</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
@@ -3480,19 +3480,19 @@
         </is>
       </c>
       <c r="AA24" t="n">
-        <v>1827</v>
+        <v>1841</v>
       </c>
       <c r="AB24" t="n">
-        <v>4667</v>
+        <v>4671</v>
       </c>
       <c r="AC24" t="n">
         <v>244</v>
       </c>
       <c r="AD24" t="n">
-        <v>13919</v>
+        <v>13923</v>
       </c>
       <c r="AE24" t="n">
-        <v>26125</v>
+        <v>26156</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
@@ -3607,19 +3607,19 @@
         </is>
       </c>
       <c r="AA25" t="n">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AB25" t="n">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="AC25" t="n">
         <v>1388</v>
       </c>
       <c r="AD25" t="n">
-        <v>113308</v>
+        <v>113360</v>
       </c>
       <c r="AE25" t="n">
-        <v>202876</v>
+        <v>203059</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
@@ -3740,13 +3740,13 @@
         <v>302</v>
       </c>
       <c r="AC26" t="n">
-        <v>29777</v>
+        <v>29794</v>
       </c>
       <c r="AD26" t="n">
-        <v>384919</v>
+        <v>385173</v>
       </c>
       <c r="AE26" t="n">
-        <v>716578</v>
+        <v>717128</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
@@ -3861,19 +3861,19 @@
         </is>
       </c>
       <c r="AA27" t="n">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AB27" t="n">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AC27" t="n">
         <v>3677</v>
       </c>
       <c r="AD27" t="n">
-        <v>99473</v>
+        <v>99506</v>
       </c>
       <c r="AE27" t="n">
-        <v>179014</v>
+        <v>179117</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
@@ -3988,19 +3988,19 @@
         </is>
       </c>
       <c r="AA28" t="n">
-        <v>3091</v>
+        <v>3072</v>
       </c>
       <c r="AB28" t="n">
         <v>3029</v>
       </c>
       <c r="AC28" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AD28" t="n">
-        <v>29705</v>
+        <v>29709</v>
       </c>
       <c r="AE28" t="n">
-        <v>60992</v>
+        <v>61034</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
@@ -4117,13 +4117,13 @@
         <v>341</v>
       </c>
       <c r="AC29" t="n">
-        <v>13625</v>
+        <v>13630</v>
       </c>
       <c r="AD29" t="n">
-        <v>346709</v>
+        <v>346867</v>
       </c>
       <c r="AE29" t="n">
-        <v>671007</v>
+        <v>671385</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
@@ -4238,19 +4238,19 @@
         </is>
       </c>
       <c r="AA30" t="n">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="AB30" t="n">
         <v>1419</v>
       </c>
       <c r="AC30" t="n">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="AD30" t="n">
-        <v>72794</v>
+        <v>72806</v>
       </c>
       <c r="AE30" t="n">
-        <v>181163</v>
+        <v>181226</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
@@ -4371,13 +4371,13 @@
         <v>122</v>
       </c>
       <c r="AC31" t="n">
-        <v>57506</v>
+        <v>57568</v>
       </c>
       <c r="AD31" t="n">
-        <v>465965</v>
+        <v>466402</v>
       </c>
       <c r="AE31" t="n">
-        <v>1227446</v>
+        <v>1228459</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
@@ -4492,19 +4492,19 @@
         </is>
       </c>
       <c r="AA32" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AB32" t="n">
         <v>9</v>
       </c>
       <c r="AC32" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AD32" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AE32" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         </is>
       </c>
       <c r="AA33" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AB33" t="n">
         <v>467</v>
@@ -4628,10 +4628,10 @@
         <v>10255</v>
       </c>
       <c r="AD33" t="n">
-        <v>243471</v>
+        <v>243545</v>
       </c>
       <c r="AE33" t="n">
-        <v>512712</v>
+        <v>512957</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
@@ -4742,19 +4742,19 @@
         </is>
       </c>
       <c r="AA34" t="n">
-        <v>1787</v>
+        <v>1818</v>
       </c>
       <c r="AB34" t="n">
-        <v>3220</v>
+        <v>3222</v>
       </c>
       <c r="AC34" t="n">
         <v>96</v>
       </c>
       <c r="AD34" t="n">
-        <v>28324</v>
+        <v>28326</v>
       </c>
       <c r="AE34" t="n">
-        <v>54310</v>
+        <v>54312</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
@@ -4865,19 +4865,19 @@
         </is>
       </c>
       <c r="AA35" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AB35" t="n">
         <v>913</v>
       </c>
       <c r="AC35" t="n">
-        <v>6370</v>
+        <v>6372</v>
       </c>
       <c r="AD35" t="n">
-        <v>141740</v>
+        <v>141779</v>
       </c>
       <c r="AE35" t="n">
-        <v>286236</v>
+        <v>286346</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
@@ -4992,19 +4992,19 @@
         </is>
       </c>
       <c r="AA36" t="n">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="AB36" t="n">
         <v>772</v>
       </c>
       <c r="AC36" t="n">
-        <v>5301</v>
+        <v>5303</v>
       </c>
       <c r="AD36" t="n">
-        <v>152563</v>
+        <v>152592</v>
       </c>
       <c r="AE36" t="n">
-        <v>337409</v>
+        <v>337604</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
@@ -5119,19 +5119,19 @@
         </is>
       </c>
       <c r="AA37" t="n">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="AB37" t="n">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="AC37" t="n">
         <v>2416</v>
       </c>
       <c r="AD37" t="n">
-        <v>92388</v>
+        <v>92422</v>
       </c>
       <c r="AE37" t="n">
-        <v>165966</v>
+        <v>166077</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
@@ -5246,19 +5246,19 @@
         </is>
       </c>
       <c r="AA38" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AB38" t="n">
         <v>45</v>
       </c>
       <c r="AC38" t="n">
-        <v>111705</v>
+        <v>111746</v>
       </c>
       <c r="AD38" t="n">
-        <v>1148687</v>
+        <v>1149283</v>
       </c>
       <c r="AE38" t="n">
-        <v>1921298</v>
+        <v>1922324</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
@@ -5369,19 +5369,19 @@
         </is>
       </c>
       <c r="AA39" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AB39" t="n">
         <v>177</v>
       </c>
       <c r="AC39" t="n">
-        <v>30599</v>
+        <v>30612</v>
       </c>
       <c r="AD39" t="n">
-        <v>657898</v>
+        <v>658215</v>
       </c>
       <c r="AE39" t="n">
-        <v>985843</v>
+        <v>986397</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="AA40" t="n">
-        <v>2060</v>
+        <v>2075</v>
       </c>
       <c r="AB40" t="n">
         <v>964</v>
@@ -5501,10 +5501,10 @@
         <v>766</v>
       </c>
       <c r="AD40" t="n">
-        <v>150590</v>
+        <v>150633</v>
       </c>
       <c r="AE40" t="n">
-        <v>271722</v>
+        <v>271802</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
@@ -5619,19 +5619,19 @@
         </is>
       </c>
       <c r="AA41" t="n">
-        <v>2550</v>
+        <v>2587</v>
       </c>
       <c r="AB41" t="n">
         <v>1695</v>
       </c>
       <c r="AC41" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AD41" t="n">
-        <v>56864</v>
+        <v>56872</v>
       </c>
       <c r="AE41" t="n">
-        <v>146257</v>
+        <v>146304</v>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
@@ -5742,19 +5742,19 @@
         </is>
       </c>
       <c r="AA42" t="n">
-        <v>8693</v>
+        <v>8678</v>
       </c>
       <c r="AB42" t="n">
-        <v>3332</v>
+        <v>3337</v>
       </c>
       <c r="AC42" t="n">
         <v>187</v>
       </c>
       <c r="AD42" t="n">
-        <v>27564</v>
+        <v>27567</v>
       </c>
       <c r="AE42" t="n">
-        <v>51207</v>
+        <v>51219</v>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
@@ -5869,19 +5869,19 @@
         </is>
       </c>
       <c r="AA43" t="n">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AB43" t="n">
         <v>261</v>
       </c>
       <c r="AC43" t="n">
-        <v>16780</v>
+        <v>16786</v>
       </c>
       <c r="AD43" t="n">
-        <v>387605</v>
+        <v>387745</v>
       </c>
       <c r="AE43" t="n">
-        <v>799739</v>
+        <v>800077</v>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
@@ -5996,19 +5996,19 @@
         </is>
       </c>
       <c r="AA44" t="n">
-        <v>3176</v>
+        <v>3215</v>
       </c>
       <c r="AB44" t="n">
         <v>1942</v>
       </c>
       <c r="AC44" t="n">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AD44" t="n">
-        <v>45203</v>
+        <v>45220</v>
       </c>
       <c r="AE44" t="n">
-        <v>122688</v>
+        <v>122807</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="AA45" t="n">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="AB45" t="n">
         <v>1361</v>
@@ -6132,10 +6132,10 @@
         <v>2067</v>
       </c>
       <c r="AD45" t="n">
-        <v>91608</v>
+        <v>91626</v>
       </c>
       <c r="AE45" t="n">
-        <v>190549</v>
+        <v>190661</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
@@ -6250,19 +6250,19 @@
         </is>
       </c>
       <c r="AA46" t="n">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="AB46" t="n">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="AC46" t="n">
         <v>3046</v>
       </c>
       <c r="AD46" t="n">
-        <v>86901</v>
+        <v>86921</v>
       </c>
       <c r="AE46" t="n">
-        <v>191982</v>
+        <v>192092</v>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
@@ -6377,19 +6377,19 @@
         </is>
       </c>
       <c r="AA47" t="n">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="AB47" t="n">
         <v>638</v>
       </c>
       <c r="AC47" t="n">
-        <v>8547</v>
+        <v>8558</v>
       </c>
       <c r="AD47" t="n">
-        <v>171967</v>
+        <v>172117</v>
       </c>
       <c r="AE47" t="n">
-        <v>396752</v>
+        <v>397130</v>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
@@ -6504,19 +6504,19 @@
         </is>
       </c>
       <c r="AA48" t="n">
-        <v>4726</v>
+        <v>4753</v>
       </c>
       <c r="AB48" t="n">
-        <v>5638</v>
+        <v>5642</v>
       </c>
       <c r="AC48" t="n">
         <v>16</v>
       </c>
       <c r="AD48" t="n">
-        <v>6953</v>
+        <v>6954</v>
       </c>
       <c r="AE48" t="n">
-        <v>16260</v>
+        <v>16262</v>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
@@ -6623,19 +6623,19 @@
         </is>
       </c>
       <c r="AA49" t="n">
-        <v>2955</v>
+        <v>2934</v>
       </c>
       <c r="AB49" t="n">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="AC49" t="n">
         <v>260</v>
       </c>
       <c r="AD49" t="n">
-        <v>27834</v>
+        <v>27840</v>
       </c>
       <c r="AE49" t="n">
-        <v>56599</v>
+        <v>56606</v>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
@@ -6748,13 +6748,13 @@
         <v>208</v>
       </c>
       <c r="AC50" t="n">
-        <v>14408</v>
+        <v>14410</v>
       </c>
       <c r="AD50" t="n">
-        <v>539696</v>
+        <v>539935</v>
       </c>
       <c r="AE50" t="n">
-        <v>911525</v>
+        <v>912054</v>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
@@ -6865,19 +6865,19 @@
         </is>
       </c>
       <c r="AA51" t="n">
-        <v>2813</v>
+        <v>2835</v>
       </c>
       <c r="AB51" t="n">
         <v>943</v>
       </c>
       <c r="AC51" t="n">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="AD51" t="n">
-        <v>131780</v>
+        <v>131797</v>
       </c>
       <c r="AE51" t="n">
-        <v>277596</v>
+        <v>277635</v>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
@@ -6988,19 +6988,19 @@
         </is>
       </c>
       <c r="AA52" t="n">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="AB52" t="n">
         <v>1136</v>
       </c>
       <c r="AC52" t="n">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="AD52" t="n">
-        <v>106077</v>
+        <v>106085</v>
       </c>
       <c r="AE52" t="n">
-        <v>232527</v>
+        <v>232604</v>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
@@ -7111,19 +7111,19 @@
         </is>
       </c>
       <c r="AA53" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB53" t="n">
         <v>42</v>
       </c>
       <c r="AC53" t="n">
-        <v>86255</v>
+        <v>86295</v>
       </c>
       <c r="AD53" t="n">
-        <v>1014558</v>
+        <v>1015015</v>
       </c>
       <c r="AE53" t="n">
-        <v>1965187</v>
+        <v>1966181</v>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
@@ -7230,19 +7230,19 @@
         </is>
       </c>
       <c r="AA54" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AB54" t="n">
         <v>639</v>
       </c>
       <c r="AC54" t="n">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="AD54" t="n">
-        <v>224491</v>
+        <v>224575</v>
       </c>
       <c r="AE54" t="n">
-        <v>396379</v>
+        <v>396555</v>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
@@ -7353,19 +7353,19 @@
         </is>
       </c>
       <c r="AA55" t="n">
-        <v>3643</v>
+        <v>3617</v>
       </c>
       <c r="AB55" t="n">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="AC55" t="n">
         <v>1281</v>
       </c>
       <c r="AD55" t="n">
-        <v>100497</v>
+        <v>100499</v>
       </c>
       <c r="AE55" t="n">
-        <v>188739</v>
+        <v>188790</v>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
@@ -7476,19 +7476,19 @@
         </is>
       </c>
       <c r="AA56" t="n">
-        <v>6887</v>
+        <v>6900</v>
       </c>
       <c r="AB56" t="n">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AC56" t="n">
         <v>360</v>
       </c>
       <c r="AD56" t="n">
-        <v>81363</v>
+        <v>81380</v>
       </c>
       <c r="AE56" t="n">
-        <v>153401</v>
+        <v>153499</v>
       </c>
       <c r="AF56" t="inlineStr">
         <is>
@@ -7599,19 +7599,19 @@
         </is>
       </c>
       <c r="AA57" t="n">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="AB57" t="n">
         <v>466</v>
       </c>
       <c r="AC57" t="n">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="AD57" t="n">
-        <v>247023</v>
+        <v>247060</v>
       </c>
       <c r="AE57" t="n">
-        <v>514273</v>
+        <v>514432</v>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
@@ -7718,19 +7718,19 @@
         </is>
       </c>
       <c r="AA58" t="n">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="AB58" t="n">
         <v>1136</v>
       </c>
       <c r="AC58" t="n">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="AD58" t="n">
-        <v>106077</v>
+        <v>106085</v>
       </c>
       <c r="AE58" t="n">
-        <v>232527</v>
+        <v>232604</v>
       </c>
       <c r="AF58" t="inlineStr">
         <is>
@@ -7837,19 +7837,19 @@
         </is>
       </c>
       <c r="AA59" t="n">
-        <v>3017</v>
+        <v>3008</v>
       </c>
       <c r="AB59" t="n">
-        <v>3250</v>
+        <v>3252</v>
       </c>
       <c r="AC59" t="n">
         <v>312</v>
       </c>
       <c r="AD59" t="n">
-        <v>26022</v>
+        <v>26024</v>
       </c>
       <c r="AE59" t="n">
-        <v>53129</v>
+        <v>53150</v>
       </c>
       <c r="AF59" t="inlineStr">
         <is>
@@ -7956,19 +7956,19 @@
         </is>
       </c>
       <c r="AA60" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AB60" t="n">
         <v>9</v>
       </c>
       <c r="AC60" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AD60" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AE60" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AF60" t="inlineStr">
         <is>
@@ -8071,19 +8071,19 @@
         </is>
       </c>
       <c r="AA61" t="n">
-        <v>2955</v>
+        <v>2934</v>
       </c>
       <c r="AB61" t="n">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="AC61" t="n">
         <v>260</v>
       </c>
       <c r="AD61" t="n">
-        <v>27834</v>
+        <v>27840</v>
       </c>
       <c r="AE61" t="n">
-        <v>56599</v>
+        <v>56606</v>
       </c>
       <c r="AF61" t="inlineStr">
         <is>
@@ -8190,19 +8190,19 @@
         </is>
       </c>
       <c r="AA62" t="n">
-        <v>3951</v>
+        <v>3935</v>
       </c>
       <c r="AB62" t="n">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="AC62" t="n">
         <v>472</v>
       </c>
       <c r="AD62" t="n">
-        <v>55031</v>
+        <v>55040</v>
       </c>
       <c r="AE62" t="n">
-        <v>114589</v>
+        <v>114627</v>
       </c>
       <c r="AF62" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         </is>
       </c>
       <c r="AA63" t="n">
-        <v>2458</v>
+        <v>2443</v>
       </c>
       <c r="AB63" t="n">
         <v>484</v>
@@ -8318,10 +8318,10 @@
         <v>4174</v>
       </c>
       <c r="AD63" t="n">
-        <v>260340</v>
+        <v>260389</v>
       </c>
       <c r="AE63" t="n">
-        <v>499813</v>
+        <v>500003</v>
       </c>
       <c r="AF63" t="inlineStr">
         <is>
@@ -8428,19 +8428,19 @@
         </is>
       </c>
       <c r="AA64" t="n">
-        <v>3643</v>
+        <v>3617</v>
       </c>
       <c r="AB64" t="n">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="AC64" t="n">
         <v>1281</v>
       </c>
       <c r="AD64" t="n">
-        <v>100497</v>
+        <v>100499</v>
       </c>
       <c r="AE64" t="n">
-        <v>188739</v>
+        <v>188790</v>
       </c>
       <c r="AF64" t="inlineStr">
         <is>
@@ -8547,19 +8547,19 @@
         </is>
       </c>
       <c r="AA65" t="n">
-        <v>6887</v>
+        <v>6900</v>
       </c>
       <c r="AB65" t="n">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AC65" t="n">
         <v>360</v>
       </c>
       <c r="AD65" t="n">
-        <v>81363</v>
+        <v>81380</v>
       </c>
       <c r="AE65" t="n">
-        <v>153401</v>
+        <v>153499</v>
       </c>
       <c r="AF65" t="inlineStr">
         <is>
@@ -8666,19 +8666,19 @@
         </is>
       </c>
       <c r="AA66" t="n">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="AB66" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AC66" t="n">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="AD66" t="n">
-        <v>151482</v>
+        <v>151505</v>
       </c>
       <c r="AE66" t="n">
-        <v>268022</v>
+        <v>268113</v>
       </c>
       <c r="AF66" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         </is>
       </c>
       <c r="AA67" t="n">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AB67" t="n">
         <v>874</v>
@@ -8794,10 +8794,10 @@
         <v>2983</v>
       </c>
       <c r="AD67" t="n">
-        <v>178880</v>
+        <v>178910</v>
       </c>
       <c r="AE67" t="n">
-        <v>304856</v>
+        <v>304988</v>
       </c>
       <c r="AF67" t="inlineStr">
         <is>
@@ -8904,19 +8904,19 @@
         </is>
       </c>
       <c r="AA68" t="n">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AB68" t="n">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AC68" t="n">
         <v>3677</v>
       </c>
       <c r="AD68" t="n">
-        <v>99473</v>
+        <v>99506</v>
       </c>
       <c r="AE68" t="n">
-        <v>179014</v>
+        <v>179117</v>
       </c>
       <c r="AF68" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         </is>
       </c>
       <c r="AA69" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AB69" t="n">
         <v>467</v>
@@ -9032,10 +9032,10 @@
         <v>10255</v>
       </c>
       <c r="AD69" t="n">
-        <v>243471</v>
+        <v>243545</v>
       </c>
       <c r="AE69" t="n">
-        <v>512712</v>
+        <v>512957</v>
       </c>
       <c r="AF69" t="inlineStr">
         <is>
@@ -9142,19 +9142,19 @@
         </is>
       </c>
       <c r="AA70" t="n">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="AB70" t="n">
         <v>772</v>
       </c>
       <c r="AC70" t="n">
-        <v>5301</v>
+        <v>5303</v>
       </c>
       <c r="AD70" t="n">
-        <v>152563</v>
+        <v>152592</v>
       </c>
       <c r="AE70" t="n">
-        <v>337409</v>
+        <v>337604</v>
       </c>
       <c r="AF70" t="inlineStr">
         <is>
@@ -9261,19 +9261,19 @@
         </is>
       </c>
       <c r="AA71" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AB71" t="n">
         <v>45</v>
       </c>
       <c r="AC71" t="n">
-        <v>111705</v>
+        <v>111746</v>
       </c>
       <c r="AD71" t="n">
-        <v>1148687</v>
+        <v>1149283</v>
       </c>
       <c r="AE71" t="n">
-        <v>1921298</v>
+        <v>1922324</v>
       </c>
       <c r="AF71" t="inlineStr">
         <is>
@@ -9376,19 +9376,19 @@
         </is>
       </c>
       <c r="AA72" t="n">
-        <v>8693</v>
+        <v>8678</v>
       </c>
       <c r="AB72" t="n">
-        <v>3332</v>
+        <v>3337</v>
       </c>
       <c r="AC72" t="n">
         <v>187</v>
       </c>
       <c r="AD72" t="n">
-        <v>27564</v>
+        <v>27567</v>
       </c>
       <c r="AE72" t="n">
-        <v>51207</v>
+        <v>51219</v>
       </c>
       <c r="AF72" t="inlineStr">
         <is>
@@ -9495,19 +9495,19 @@
         </is>
       </c>
       <c r="AA73" t="n">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AB73" t="n">
         <v>261</v>
       </c>
       <c r="AC73" t="n">
-        <v>16780</v>
+        <v>16786</v>
       </c>
       <c r="AD73" t="n">
-        <v>387605</v>
+        <v>387745</v>
       </c>
       <c r="AE73" t="n">
-        <v>799739</v>
+        <v>800077</v>
       </c>
       <c r="AF73" t="inlineStr">
         <is>
@@ -9614,19 +9614,19 @@
         </is>
       </c>
       <c r="AA74" t="n">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="AB74" t="n">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="AC74" t="n">
         <v>3046</v>
       </c>
       <c r="AD74" t="n">
-        <v>86901</v>
+        <v>86921</v>
       </c>
       <c r="AE74" t="n">
-        <v>191982</v>
+        <v>192092</v>
       </c>
       <c r="AF74" t="inlineStr">
         <is>
@@ -9741,19 +9741,19 @@
         </is>
       </c>
       <c r="AA75" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AB75" t="n">
         <v>17</v>
       </c>
       <c r="AC75" t="n">
-        <v>237054</v>
+        <v>237229</v>
       </c>
       <c r="AD75" t="n">
-        <v>1433761</v>
+        <v>1434888</v>
       </c>
       <c r="AE75" t="n">
-        <v>2522600</v>
+        <v>2524779</v>
       </c>
       <c r="AF75" t="inlineStr">
         <is>
@@ -9868,19 +9868,19 @@
         </is>
       </c>
       <c r="AA76" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB76" t="n">
         <v>42</v>
       </c>
       <c r="AC76" t="n">
-        <v>86255</v>
+        <v>86295</v>
       </c>
       <c r="AD76" t="n">
-        <v>1014558</v>
+        <v>1015015</v>
       </c>
       <c r="AE76" t="n">
-        <v>1965187</v>
+        <v>1966181</v>
       </c>
       <c r="AF76" t="inlineStr">
         <is>
@@ -9991,19 +9991,19 @@
         </is>
       </c>
       <c r="AA77" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AB77" t="n">
         <v>639</v>
       </c>
       <c r="AC77" t="n">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="AD77" t="n">
-        <v>224491</v>
+        <v>224575</v>
       </c>
       <c r="AE77" t="n">
-        <v>396379</v>
+        <v>396555</v>
       </c>
       <c r="AF77" t="inlineStr">
         <is>
@@ -10118,19 +10118,19 @@
         </is>
       </c>
       <c r="AA78" t="n">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="AB78" t="n">
         <v>466</v>
       </c>
       <c r="AC78" t="n">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="AD78" t="n">
-        <v>247023</v>
+        <v>247060</v>
       </c>
       <c r="AE78" t="n">
-        <v>514273</v>
+        <v>514432</v>
       </c>
       <c r="AF78" t="inlineStr">
         <is>
@@ -10251,13 +10251,13 @@
         <v>302</v>
       </c>
       <c r="AC79" t="n">
-        <v>29777</v>
+        <v>29794</v>
       </c>
       <c r="AD79" t="n">
-        <v>384919</v>
+        <v>385173</v>
       </c>
       <c r="AE79" t="n">
-        <v>716578</v>
+        <v>717128</v>
       </c>
       <c r="AF79" t="inlineStr">
         <is>
@@ -10374,13 +10374,13 @@
         <v>341</v>
       </c>
       <c r="AC80" t="n">
-        <v>13625</v>
+        <v>13630</v>
       </c>
       <c r="AD80" t="n">
-        <v>346709</v>
+        <v>346867</v>
       </c>
       <c r="AE80" t="n">
-        <v>671007</v>
+        <v>671385</v>
       </c>
       <c r="AF80" t="inlineStr">
         <is>
@@ -10495,19 +10495,19 @@
         </is>
       </c>
       <c r="AA81" t="n">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="AB81" t="n">
         <v>1419</v>
       </c>
       <c r="AC81" t="n">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="AD81" t="n">
-        <v>72794</v>
+        <v>72806</v>
       </c>
       <c r="AE81" t="n">
-        <v>181163</v>
+        <v>181226</v>
       </c>
       <c r="AF81" t="inlineStr">
         <is>
@@ -10622,19 +10622,19 @@
         </is>
       </c>
       <c r="AA82" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AB82" t="n">
         <v>9</v>
       </c>
       <c r="AC82" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AD82" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AE82" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AF82" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         </is>
       </c>
       <c r="AA83" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AB83" t="n">
         <v>467</v>
@@ -10758,10 +10758,10 @@
         <v>10255</v>
       </c>
       <c r="AD83" t="n">
-        <v>243471</v>
+        <v>243545</v>
       </c>
       <c r="AE83" t="n">
-        <v>512712</v>
+        <v>512957</v>
       </c>
       <c r="AF83" t="inlineStr">
         <is>
@@ -10876,19 +10876,19 @@
         </is>
       </c>
       <c r="AA84" t="n">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="AB84" t="n">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="AC84" t="n">
         <v>3046</v>
       </c>
       <c r="AD84" t="n">
-        <v>86901</v>
+        <v>86921</v>
       </c>
       <c r="AE84" t="n">
-        <v>191982</v>
+        <v>192092</v>
       </c>
       <c r="AF84" t="inlineStr">
         <is>
@@ -11003,19 +11003,19 @@
         </is>
       </c>
       <c r="AA85" t="n">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AB85" t="n">
         <v>261</v>
       </c>
       <c r="AC85" t="n">
-        <v>16780</v>
+        <v>16786</v>
       </c>
       <c r="AD85" t="n">
-        <v>387605</v>
+        <v>387745</v>
       </c>
       <c r="AE85" t="n">
-        <v>799739</v>
+        <v>800077</v>
       </c>
       <c r="AF85" t="inlineStr">
         <is>
@@ -11126,19 +11126,19 @@
         </is>
       </c>
       <c r="AA86" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AB86" t="n">
         <v>17</v>
       </c>
       <c r="AC86" t="n">
-        <v>237054</v>
+        <v>237229</v>
       </c>
       <c r="AD86" t="n">
-        <v>1433761</v>
+        <v>1434888</v>
       </c>
       <c r="AE86" t="n">
-        <v>2522600</v>
+        <v>2524779</v>
       </c>
       <c r="AF86" t="inlineStr">
         <is>
@@ -11249,19 +11249,19 @@
         </is>
       </c>
       <c r="AA87" t="n">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AB87" t="n">
         <v>716</v>
       </c>
       <c r="AC87" t="n">
-        <v>8827</v>
+        <v>8828</v>
       </c>
       <c r="AD87" t="n">
-        <v>146166</v>
+        <v>146223</v>
       </c>
       <c r="AE87" t="n">
-        <v>359363</v>
+        <v>359562</v>
       </c>
       <c r="AF87" t="inlineStr">
         <is>
@@ -11372,19 +11372,19 @@
         </is>
       </c>
       <c r="AA88" t="n">
-        <v>2813</v>
+        <v>2835</v>
       </c>
       <c r="AB88" t="n">
         <v>943</v>
       </c>
       <c r="AC88" t="n">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="AD88" t="n">
-        <v>131780</v>
+        <v>131797</v>
       </c>
       <c r="AE88" t="n">
-        <v>277596</v>
+        <v>277635</v>
       </c>
       <c r="AF88" t="inlineStr">
         <is>
@@ -11495,19 +11495,19 @@
         </is>
       </c>
       <c r="AA89" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB89" t="n">
         <v>42</v>
       </c>
       <c r="AC89" t="n">
-        <v>86255</v>
+        <v>86295</v>
       </c>
       <c r="AD89" t="n">
-        <v>1014558</v>
+        <v>1015015</v>
       </c>
       <c r="AE89" t="n">
-        <v>1965187</v>
+        <v>1966181</v>
       </c>
       <c r="AF89" t="inlineStr">
         <is>
@@ -11614,19 +11614,19 @@
         </is>
       </c>
       <c r="AA90" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AB90" t="n">
         <v>639</v>
       </c>
       <c r="AC90" t="n">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="AD90" t="n">
-        <v>224491</v>
+        <v>224575</v>
       </c>
       <c r="AE90" t="n">
-        <v>396379</v>
+        <v>396555</v>
       </c>
       <c r="AF90" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         </is>
       </c>
       <c r="AA91" t="n">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="AB91" t="n">
         <v>1361</v>
@@ -11746,10 +11746,10 @@
         <v>2067</v>
       </c>
       <c r="AD91" t="n">
-        <v>91608</v>
+        <v>91626</v>
       </c>
       <c r="AE91" t="n">
-        <v>190549</v>
+        <v>190661</v>
       </c>
       <c r="AF91" t="inlineStr">
         <is>
@@ -11860,19 +11860,19 @@
         </is>
       </c>
       <c r="AA92" t="n">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="AB92" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AC92" t="n">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="AD92" t="n">
-        <v>151482</v>
+        <v>151505</v>
       </c>
       <c r="AE92" t="n">
-        <v>268022</v>
+        <v>268113</v>
       </c>
       <c r="AF92" t="inlineStr">
         <is>
@@ -11983,19 +11983,19 @@
         </is>
       </c>
       <c r="AA93" t="n">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AB93" t="n">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="AC93" t="n">
         <v>1388</v>
       </c>
       <c r="AD93" t="n">
-        <v>113308</v>
+        <v>113360</v>
       </c>
       <c r="AE93" t="n">
-        <v>202876</v>
+        <v>203059</v>
       </c>
       <c r="AF93" t="inlineStr">
         <is>
@@ -12106,19 +12106,19 @@
         </is>
       </c>
       <c r="AA94" t="n">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AB94" t="n">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AC94" t="n">
         <v>3677</v>
       </c>
       <c r="AD94" t="n">
-        <v>99473</v>
+        <v>99506</v>
       </c>
       <c r="AE94" t="n">
-        <v>179014</v>
+        <v>179117</v>
       </c>
       <c r="AF94" t="inlineStr">
         <is>
@@ -12231,13 +12231,13 @@
         <v>341</v>
       </c>
       <c r="AC95" t="n">
-        <v>13625</v>
+        <v>13630</v>
       </c>
       <c r="AD95" t="n">
-        <v>346709</v>
+        <v>346867</v>
       </c>
       <c r="AE95" t="n">
-        <v>671007</v>
+        <v>671385</v>
       </c>
       <c r="AF95" t="inlineStr">
         <is>
@@ -12348,19 +12348,19 @@
         </is>
       </c>
       <c r="AA96" t="n">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="AB96" t="n">
         <v>1419</v>
       </c>
       <c r="AC96" t="n">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="AD96" t="n">
-        <v>72794</v>
+        <v>72806</v>
       </c>
       <c r="AE96" t="n">
-        <v>181163</v>
+        <v>181226</v>
       </c>
       <c r="AF96" t="inlineStr">
         <is>
@@ -12471,19 +12471,19 @@
         </is>
       </c>
       <c r="AA97" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AB97" t="n">
         <v>9</v>
       </c>
       <c r="AC97" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AD97" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AE97" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AF97" t="inlineStr">
         <is>
@@ -12594,19 +12594,19 @@
         </is>
       </c>
       <c r="AA98" t="n">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="AB98" t="n">
         <v>1229</v>
       </c>
       <c r="AC98" t="n">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="AD98" t="n">
-        <v>99948</v>
+        <v>99966</v>
       </c>
       <c r="AE98" t="n">
-        <v>212851</v>
+        <v>212934</v>
       </c>
       <c r="AF98" t="inlineStr">
         <is>
@@ -12717,19 +12717,19 @@
         </is>
       </c>
       <c r="AA99" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AB99" t="n">
         <v>45</v>
       </c>
       <c r="AC99" t="n">
-        <v>111705</v>
+        <v>111746</v>
       </c>
       <c r="AD99" t="n">
-        <v>1148687</v>
+        <v>1149283</v>
       </c>
       <c r="AE99" t="n">
-        <v>1921298</v>
+        <v>1922324</v>
       </c>
       <c r="AF99" t="inlineStr">
         <is>
@@ -12840,19 +12840,19 @@
         </is>
       </c>
       <c r="AA100" t="n">
-        <v>2550</v>
+        <v>2587</v>
       </c>
       <c r="AB100" t="n">
         <v>1695</v>
       </c>
       <c r="AC100" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AD100" t="n">
-        <v>56864</v>
+        <v>56872</v>
       </c>
       <c r="AE100" t="n">
-        <v>146257</v>
+        <v>146304</v>
       </c>
       <c r="AF100" t="inlineStr">
         <is>
@@ -12963,19 +12963,19 @@
         </is>
       </c>
       <c r="AA101" t="n">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="AB101" t="n">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="AC101" t="n">
         <v>3046</v>
       </c>
       <c r="AD101" t="n">
-        <v>86901</v>
+        <v>86921</v>
       </c>
       <c r="AE101" t="n">
-        <v>191982</v>
+        <v>192092</v>
       </c>
       <c r="AF101" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         </is>
       </c>
       <c r="AA102" t="n">
-        <v>1172</v>
+        <v>1183</v>
       </c>
       <c r="AB102" t="n">
         <v>975</v>
@@ -13095,10 +13095,10 @@
         <v>5351</v>
       </c>
       <c r="AD102" t="n">
-        <v>60486</v>
+        <v>60519</v>
       </c>
       <c r="AE102" t="n">
-        <v>269599</v>
+        <v>269860</v>
       </c>
       <c r="AF102" t="inlineStr">
         <is>
@@ -13209,19 +13209,19 @@
         </is>
       </c>
       <c r="AA103" t="n">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AB103" t="n">
         <v>261</v>
       </c>
       <c r="AC103" t="n">
-        <v>16780</v>
+        <v>16786</v>
       </c>
       <c r="AD103" t="n">
-        <v>387605</v>
+        <v>387745</v>
       </c>
       <c r="AE103" t="n">
-        <v>799739</v>
+        <v>800077</v>
       </c>
       <c r="AF103" t="inlineStr">
         <is>
@@ -13332,19 +13332,19 @@
         </is>
       </c>
       <c r="AA104" t="n">
-        <v>2955</v>
+        <v>2934</v>
       </c>
       <c r="AB104" t="n">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="AC104" t="n">
         <v>260</v>
       </c>
       <c r="AD104" t="n">
-        <v>27834</v>
+        <v>27840</v>
       </c>
       <c r="AE104" t="n">
-        <v>56599</v>
+        <v>56606</v>
       </c>
       <c r="AF104" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         </is>
       </c>
       <c r="AA105" t="n">
-        <v>2458</v>
+        <v>2443</v>
       </c>
       <c r="AB105" t="n">
         <v>484</v>
@@ -13468,10 +13468,10 @@
         <v>4174</v>
       </c>
       <c r="AD105" t="n">
-        <v>260340</v>
+        <v>260389</v>
       </c>
       <c r="AE105" t="n">
-        <v>499813</v>
+        <v>500003</v>
       </c>
       <c r="AF105" t="inlineStr">
         <is>
@@ -13586,19 +13586,19 @@
         </is>
       </c>
       <c r="AA106" t="n">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="AB106" t="n">
         <v>1136</v>
       </c>
       <c r="AC106" t="n">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="AD106" t="n">
-        <v>106077</v>
+        <v>106085</v>
       </c>
       <c r="AE106" t="n">
-        <v>232527</v>
+        <v>232604</v>
       </c>
       <c r="AF106" t="inlineStr">
         <is>
@@ -13713,19 +13713,19 @@
         </is>
       </c>
       <c r="AA107" t="n">
-        <v>3643</v>
+        <v>3617</v>
       </c>
       <c r="AB107" t="n">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="AC107" t="n">
         <v>1281</v>
       </c>
       <c r="AD107" t="n">
-        <v>100497</v>
+        <v>100499</v>
       </c>
       <c r="AE107" t="n">
-        <v>188739</v>
+        <v>188790</v>
       </c>
       <c r="AF107" t="inlineStr">
         <is>
@@ -13840,19 +13840,19 @@
         </is>
       </c>
       <c r="AA108" t="n">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="AB108" t="n">
         <v>466</v>
       </c>
       <c r="AC108" t="n">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="AD108" t="n">
-        <v>247023</v>
+        <v>247060</v>
       </c>
       <c r="AE108" t="n">
-        <v>514273</v>
+        <v>514432</v>
       </c>
       <c r="AF108" t="inlineStr">
         <is>
@@ -13967,19 +13967,19 @@
         </is>
       </c>
       <c r="AA109" t="n">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="AB109" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AC109" t="n">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="AD109" t="n">
-        <v>151482</v>
+        <v>151505</v>
       </c>
       <c r="AE109" t="n">
-        <v>268022</v>
+        <v>268113</v>
       </c>
       <c r="AF109" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         </is>
       </c>
       <c r="AA110" t="n">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AB110" t="n">
         <v>874</v>
@@ -14103,10 +14103,10 @@
         <v>2983</v>
       </c>
       <c r="AD110" t="n">
-        <v>178880</v>
+        <v>178910</v>
       </c>
       <c r="AE110" t="n">
-        <v>304856</v>
+        <v>304988</v>
       </c>
       <c r="AF110" t="inlineStr">
         <is>
@@ -14217,19 +14217,19 @@
         </is>
       </c>
       <c r="AA111" t="n">
-        <v>8693</v>
+        <v>8678</v>
       </c>
       <c r="AB111" t="n">
-        <v>3332</v>
+        <v>3337</v>
       </c>
       <c r="AC111" t="n">
         <v>187</v>
       </c>
       <c r="AD111" t="n">
-        <v>27564</v>
+        <v>27567</v>
       </c>
       <c r="AE111" t="n">
-        <v>51207</v>
+        <v>51219</v>
       </c>
       <c r="AF111" t="inlineStr">
         <is>
@@ -14344,19 +14344,19 @@
         </is>
       </c>
       <c r="AA112" t="n">
-        <v>3176</v>
+        <v>3215</v>
       </c>
       <c r="AB112" t="n">
         <v>1942</v>
       </c>
       <c r="AC112" t="n">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AD112" t="n">
-        <v>45203</v>
+        <v>45220</v>
       </c>
       <c r="AE112" t="n">
-        <v>122688</v>
+        <v>122807</v>
       </c>
       <c r="AF112" t="inlineStr">
         <is>
@@ -14467,19 +14467,19 @@
         </is>
       </c>
       <c r="AA113" t="n">
-        <v>5915</v>
+        <v>5919</v>
       </c>
       <c r="AB113" t="n">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="AC113" t="n">
         <v>199</v>
       </c>
       <c r="AD113" t="n">
-        <v>31399</v>
+        <v>31398</v>
       </c>
       <c r="AE113" t="n">
-        <v>78040</v>
+        <v>78057</v>
       </c>
       <c r="AF113" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         </is>
       </c>
       <c r="AA114" t="n">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AB114" t="n">
         <v>874</v>
@@ -14599,10 +14599,10 @@
         <v>2983</v>
       </c>
       <c r="AD114" t="n">
-        <v>178880</v>
+        <v>178910</v>
       </c>
       <c r="AE114" t="n">
-        <v>304856</v>
+        <v>304988</v>
       </c>
       <c r="AF114" t="inlineStr">
         <is>
@@ -14713,19 +14713,19 @@
         </is>
       </c>
       <c r="AA115" t="n">
-        <v>3951</v>
+        <v>3935</v>
       </c>
       <c r="AB115" t="n">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="AC115" t="n">
         <v>472</v>
       </c>
       <c r="AD115" t="n">
-        <v>55031</v>
+        <v>55040</v>
       </c>
       <c r="AE115" t="n">
-        <v>114589</v>
+        <v>114627</v>
       </c>
       <c r="AF115" t="inlineStr">
         <is>
@@ -14836,19 +14836,19 @@
         </is>
       </c>
       <c r="AA116" t="n">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="AB116" t="n">
         <v>638</v>
       </c>
       <c r="AC116" t="n">
-        <v>8547</v>
+        <v>8558</v>
       </c>
       <c r="AD116" t="n">
-        <v>171967</v>
+        <v>172117</v>
       </c>
       <c r="AE116" t="n">
-        <v>396752</v>
+        <v>397130</v>
       </c>
       <c r="AF116" t="inlineStr">
         <is>
@@ -14959,19 +14959,19 @@
         </is>
       </c>
       <c r="AA117" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB117" t="n">
         <v>42</v>
       </c>
       <c r="AC117" t="n">
-        <v>86255</v>
+        <v>86295</v>
       </c>
       <c r="AD117" t="n">
-        <v>1014558</v>
+        <v>1015015</v>
       </c>
       <c r="AE117" t="n">
-        <v>1965187</v>
+        <v>1966181</v>
       </c>
       <c r="AF117" t="inlineStr">
         <is>
@@ -15078,19 +15078,19 @@
         </is>
       </c>
       <c r="AA118" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AB118" t="n">
         <v>639</v>
       </c>
       <c r="AC118" t="n">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="AD118" t="n">
-        <v>224491</v>
+        <v>224575</v>
       </c>
       <c r="AE118" t="n">
-        <v>396379</v>
+        <v>396555</v>
       </c>
       <c r="AF118" t="inlineStr">
         <is>
@@ -15201,19 +15201,19 @@
         </is>
       </c>
       <c r="AA119" t="n">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="AB119" t="n">
         <v>466</v>
       </c>
       <c r="AC119" t="n">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="AD119" t="n">
-        <v>247023</v>
+        <v>247060</v>
       </c>
       <c r="AE119" t="n">
-        <v>514273</v>
+        <v>514432</v>
       </c>
       <c r="AF119" t="inlineStr">
         <is>
@@ -15324,19 +15324,19 @@
         </is>
       </c>
       <c r="AA120" t="n">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AB120" t="n">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AC120" t="n">
         <v>3677</v>
       </c>
       <c r="AD120" t="n">
-        <v>99473</v>
+        <v>99506</v>
       </c>
       <c r="AE120" t="n">
-        <v>179014</v>
+        <v>179117</v>
       </c>
       <c r="AF120" t="inlineStr">
         <is>
@@ -15447,19 +15447,19 @@
         </is>
       </c>
       <c r="AA121" t="n">
-        <v>2369</v>
+        <v>2353</v>
       </c>
       <c r="AB121" t="n">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="AC121" t="n">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="AD121" t="n">
-        <v>43442</v>
+        <v>43447</v>
       </c>
       <c r="AE121" t="n">
-        <v>107825</v>
+        <v>107867</v>
       </c>
       <c r="AF121" t="inlineStr">
         <is>
@@ -15570,19 +15570,19 @@
         </is>
       </c>
       <c r="AA122" t="n">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="AB122" t="n">
         <v>1229</v>
       </c>
       <c r="AC122" t="n">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="AD122" t="n">
-        <v>99948</v>
+        <v>99966</v>
       </c>
       <c r="AE122" t="n">
-        <v>212851</v>
+        <v>212934</v>
       </c>
       <c r="AF122" t="inlineStr">
         <is>
@@ -15689,19 +15689,19 @@
         </is>
       </c>
       <c r="AA123" t="n">
-        <v>1787</v>
+        <v>1818</v>
       </c>
       <c r="AB123" t="n">
-        <v>3220</v>
+        <v>3222</v>
       </c>
       <c r="AC123" t="n">
         <v>96</v>
       </c>
       <c r="AD123" t="n">
-        <v>28324</v>
+        <v>28326</v>
       </c>
       <c r="AE123" t="n">
-        <v>54310</v>
+        <v>54312</v>
       </c>
       <c r="AF123" t="inlineStr">
         <is>
@@ -15808,19 +15808,19 @@
         </is>
       </c>
       <c r="AA124" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AB124" t="n">
         <v>913</v>
       </c>
       <c r="AC124" t="n">
-        <v>6370</v>
+        <v>6372</v>
       </c>
       <c r="AD124" t="n">
-        <v>141740</v>
+        <v>141779</v>
       </c>
       <c r="AE124" t="n">
-        <v>286236</v>
+        <v>286346</v>
       </c>
       <c r="AF124" t="inlineStr">
         <is>
@@ -15931,19 +15931,19 @@
         </is>
       </c>
       <c r="AA125" t="n">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="AB125" t="n">
         <v>772</v>
       </c>
       <c r="AC125" t="n">
-        <v>5301</v>
+        <v>5303</v>
       </c>
       <c r="AD125" t="n">
-        <v>152563</v>
+        <v>152592</v>
       </c>
       <c r="AE125" t="n">
-        <v>337409</v>
+        <v>337604</v>
       </c>
       <c r="AF125" t="inlineStr">
         <is>
@@ -16054,19 +16054,19 @@
         </is>
       </c>
       <c r="AA126" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AB126" t="n">
         <v>45</v>
       </c>
       <c r="AC126" t="n">
-        <v>111705</v>
+        <v>111746</v>
       </c>
       <c r="AD126" t="n">
-        <v>1148687</v>
+        <v>1149283</v>
       </c>
       <c r="AE126" t="n">
-        <v>1921298</v>
+        <v>1922324</v>
       </c>
       <c r="AF126" t="inlineStr">
         <is>
@@ -16173,19 +16173,19 @@
         </is>
       </c>
       <c r="AA127" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AB127" t="n">
         <v>177</v>
       </c>
       <c r="AC127" t="n">
-        <v>30599</v>
+        <v>30612</v>
       </c>
       <c r="AD127" t="n">
-        <v>657898</v>
+        <v>658215</v>
       </c>
       <c r="AE127" t="n">
-        <v>985843</v>
+        <v>986397</v>
       </c>
       <c r="AF127" t="inlineStr">
         <is>
@@ -16292,7 +16292,7 @@
         </is>
       </c>
       <c r="AA128" t="n">
-        <v>2060</v>
+        <v>2075</v>
       </c>
       <c r="AB128" t="n">
         <v>964</v>
@@ -16301,10 +16301,10 @@
         <v>766</v>
       </c>
       <c r="AD128" t="n">
-        <v>150590</v>
+        <v>150633</v>
       </c>
       <c r="AE128" t="n">
-        <v>271722</v>
+        <v>271802</v>
       </c>
       <c r="AF128" t="inlineStr">
         <is>
@@ -16415,19 +16415,19 @@
         </is>
       </c>
       <c r="AA129" t="n">
-        <v>4695</v>
+        <v>4670</v>
       </c>
       <c r="AB129" t="n">
         <v>1370</v>
       </c>
       <c r="AC129" t="n">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="AD129" t="n">
-        <v>86305</v>
+        <v>86319</v>
       </c>
       <c r="AE129" t="n">
-        <v>189192</v>
+        <v>189276</v>
       </c>
       <c r="AF129" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         </is>
       </c>
       <c r="AA130" t="n">
-        <v>2458</v>
+        <v>2443</v>
       </c>
       <c r="AB130" t="n">
         <v>484</v>
@@ -16547,10 +16547,10 @@
         <v>4174</v>
       </c>
       <c r="AD130" t="n">
-        <v>260340</v>
+        <v>260389</v>
       </c>
       <c r="AE130" t="n">
-        <v>499813</v>
+        <v>500003</v>
       </c>
       <c r="AF130" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         </is>
       </c>
       <c r="AA131" t="n">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AB131" t="n">
         <v>944</v>
@@ -16670,10 +16670,10 @@
         <v>4172</v>
       </c>
       <c r="AD131" t="n">
-        <v>85543</v>
+        <v>85567</v>
       </c>
       <c r="AE131" t="n">
-        <v>277422</v>
+        <v>277575</v>
       </c>
       <c r="AF131" t="inlineStr">
         <is>
@@ -16784,19 +16784,19 @@
         </is>
       </c>
       <c r="AA132" t="n">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="AB132" t="n">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="AC132" t="n">
         <v>1136</v>
       </c>
       <c r="AD132" t="n">
-        <v>67937</v>
+        <v>67958</v>
       </c>
       <c r="AE132" t="n">
-        <v>113509</v>
+        <v>113572</v>
       </c>
       <c r="AF132" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         </is>
       </c>
       <c r="AA133" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AB133" t="n">
         <v>467</v>
@@ -16916,10 +16916,10 @@
         <v>10255</v>
       </c>
       <c r="AD133" t="n">
-        <v>243471</v>
+        <v>243545</v>
       </c>
       <c r="AE133" t="n">
-        <v>512712</v>
+        <v>512957</v>
       </c>
       <c r="AF133" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         </is>
       </c>
       <c r="AA134" t="n">
-        <v>4391</v>
+        <v>4384</v>
       </c>
       <c r="AB134" t="n">
         <v>912</v>
@@ -17039,10 +17039,10 @@
         <v>1465</v>
       </c>
       <c r="AD134" t="n">
-        <v>137883</v>
+        <v>137897</v>
       </c>
       <c r="AE134" t="n">
-        <v>286332</v>
+        <v>286467</v>
       </c>
       <c r="AF134" t="inlineStr">
         <is>
@@ -17153,19 +17153,19 @@
         </is>
       </c>
       <c r="AA135" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AB135" t="n">
         <v>9</v>
       </c>
       <c r="AC135" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AD135" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AE135" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AF135" t="inlineStr">
         <is>
@@ -17280,19 +17280,19 @@
         </is>
       </c>
       <c r="AA136" t="n">
-        <v>4695</v>
+        <v>4670</v>
       </c>
       <c r="AB136" t="n">
         <v>1370</v>
       </c>
       <c r="AC136" t="n">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="AD136" t="n">
-        <v>86305</v>
+        <v>86319</v>
       </c>
       <c r="AE136" t="n">
-        <v>189192</v>
+        <v>189276</v>
       </c>
       <c r="AF136" t="inlineStr">
         <is>
@@ -17403,19 +17403,19 @@
         </is>
       </c>
       <c r="AA137" t="n">
-        <v>4177</v>
+        <v>4208</v>
       </c>
       <c r="AB137" t="n">
-        <v>2663</v>
+        <v>2667</v>
       </c>
       <c r="AC137" t="n">
         <v>186</v>
       </c>
       <c r="AD137" t="n">
-        <v>42394</v>
+        <v>42403</v>
       </c>
       <c r="AE137" t="n">
-        <v>76339</v>
+        <v>76354</v>
       </c>
       <c r="AF137" t="inlineStr">
         <is>
@@ -17530,19 +17530,19 @@
         </is>
       </c>
       <c r="AA138" t="n">
-        <v>10791</v>
+        <v>10810</v>
       </c>
       <c r="AB138" t="n">
-        <v>5347</v>
+        <v>5349</v>
       </c>
       <c r="AC138" t="n">
         <v>22</v>
       </c>
       <c r="AD138" t="n">
-        <v>7310</v>
+        <v>7313</v>
       </c>
       <c r="AE138" t="n">
-        <v>18711</v>
+        <v>18718</v>
       </c>
       <c r="AF138" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         </is>
       </c>
       <c r="AA139" t="n">
-        <v>2458</v>
+        <v>2443</v>
       </c>
       <c r="AB139" t="n">
         <v>484</v>
@@ -17666,10 +17666,10 @@
         <v>4174</v>
       </c>
       <c r="AD139" t="n">
-        <v>260340</v>
+        <v>260389</v>
       </c>
       <c r="AE139" t="n">
-        <v>499813</v>
+        <v>500003</v>
       </c>
       <c r="AF139" t="inlineStr">
         <is>
@@ -17784,19 +17784,19 @@
         </is>
       </c>
       <c r="AA140" t="n">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="AB140" t="n">
         <v>1136</v>
       </c>
       <c r="AC140" t="n">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="AD140" t="n">
-        <v>106077</v>
+        <v>106085</v>
       </c>
       <c r="AE140" t="n">
-        <v>232527</v>
+        <v>232604</v>
       </c>
       <c r="AF140" t="inlineStr">
         <is>
@@ -17911,19 +17911,19 @@
         </is>
       </c>
       <c r="AA141" t="n">
-        <v>3643</v>
+        <v>3617</v>
       </c>
       <c r="AB141" t="n">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="AC141" t="n">
         <v>1281</v>
       </c>
       <c r="AD141" t="n">
-        <v>100497</v>
+        <v>100499</v>
       </c>
       <c r="AE141" t="n">
-        <v>188739</v>
+        <v>188790</v>
       </c>
       <c r="AF141" t="inlineStr">
         <is>
@@ -18038,19 +18038,19 @@
         </is>
       </c>
       <c r="AA142" t="n">
-        <v>6887</v>
+        <v>6900</v>
       </c>
       <c r="AB142" t="n">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AC142" t="n">
         <v>360</v>
       </c>
       <c r="AD142" t="n">
-        <v>81363</v>
+        <v>81380</v>
       </c>
       <c r="AE142" t="n">
-        <v>153401</v>
+        <v>153499</v>
       </c>
       <c r="AF142" t="inlineStr">
         <is>
@@ -18165,19 +18165,19 @@
         </is>
       </c>
       <c r="AA143" t="n">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="AB143" t="n">
         <v>466</v>
       </c>
       <c r="AC143" t="n">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="AD143" t="n">
-        <v>247023</v>
+        <v>247060</v>
       </c>
       <c r="AE143" t="n">
-        <v>514273</v>
+        <v>514432</v>
       </c>
       <c r="AF143" t="inlineStr">
         <is>
@@ -18292,19 +18292,19 @@
         </is>
       </c>
       <c r="AA144" t="n">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="AB144" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AC144" t="n">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="AD144" t="n">
-        <v>151482</v>
+        <v>151505</v>
       </c>
       <c r="AE144" t="n">
-        <v>268022</v>
+        <v>268113</v>
       </c>
       <c r="AF144" t="inlineStr">
         <is>
@@ -18419,7 +18419,7 @@
         </is>
       </c>
       <c r="AA145" t="n">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AB145" t="n">
         <v>874</v>
@@ -18428,10 +18428,10 @@
         <v>2983</v>
       </c>
       <c r="AD145" t="n">
-        <v>178880</v>
+        <v>178910</v>
       </c>
       <c r="AE145" t="n">
-        <v>304856</v>
+        <v>304988</v>
       </c>
       <c r="AF145" t="inlineStr">
         <is>
@@ -18546,19 +18546,19 @@
         </is>
       </c>
       <c r="AA146" t="n">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AB146" t="n">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AC146" t="n">
         <v>3677</v>
       </c>
       <c r="AD146" t="n">
-        <v>99473</v>
+        <v>99506</v>
       </c>
       <c r="AE146" t="n">
-        <v>179014</v>
+        <v>179117</v>
       </c>
       <c r="AF146" t="inlineStr">
         <is>
@@ -18673,19 +18673,19 @@
         </is>
       </c>
       <c r="AA147" t="n">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="AB147" t="n">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="AC147" t="n">
         <v>1136</v>
       </c>
       <c r="AD147" t="n">
-        <v>67937</v>
+        <v>67958</v>
       </c>
       <c r="AE147" t="n">
-        <v>113509</v>
+        <v>113572</v>
       </c>
       <c r="AF147" t="inlineStr">
         <is>
@@ -18800,19 +18800,19 @@
         </is>
       </c>
       <c r="AA148" t="n">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="AB148" t="n">
         <v>1419</v>
       </c>
       <c r="AC148" t="n">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="AD148" t="n">
-        <v>72794</v>
+        <v>72806</v>
       </c>
       <c r="AE148" t="n">
-        <v>181163</v>
+        <v>181226</v>
       </c>
       <c r="AF148" t="inlineStr">
         <is>
@@ -18927,19 +18927,19 @@
         </is>
       </c>
       <c r="AA149" t="n">
-        <v>2369</v>
+        <v>2353</v>
       </c>
       <c r="AB149" t="n">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="AC149" t="n">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="AD149" t="n">
-        <v>43442</v>
+        <v>43447</v>
       </c>
       <c r="AE149" t="n">
-        <v>107825</v>
+        <v>107867</v>
       </c>
       <c r="AF149" t="inlineStr">
         <is>
@@ -19054,19 +19054,19 @@
         </is>
       </c>
       <c r="AA150" t="n">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="AB150" t="n">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="AC150" t="n">
         <v>1015</v>
       </c>
       <c r="AD150" t="n">
-        <v>34966</v>
+        <v>34977</v>
       </c>
       <c r="AE150" t="n">
-        <v>67980</v>
+        <v>68011</v>
       </c>
       <c r="AF150" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         </is>
       </c>
       <c r="AA151" t="n">
-        <v>2387</v>
+        <v>2413</v>
       </c>
       <c r="AB151" t="n">
         <v>1996</v>
@@ -19190,10 +19190,10 @@
         <v>1142</v>
       </c>
       <c r="AD151" t="n">
-        <v>52930</v>
+        <v>52934</v>
       </c>
       <c r="AE151" t="n">
-        <v>119163</v>
+        <v>119221</v>
       </c>
       <c r="AF151" t="inlineStr">
         <is>
@@ -19308,19 +19308,19 @@
         </is>
       </c>
       <c r="AA152" t="n">
-        <v>3017</v>
+        <v>3008</v>
       </c>
       <c r="AB152" t="n">
-        <v>3250</v>
+        <v>3252</v>
       </c>
       <c r="AC152" t="n">
         <v>312</v>
       </c>
       <c r="AD152" t="n">
-        <v>26022</v>
+        <v>26024</v>
       </c>
       <c r="AE152" t="n">
-        <v>53129</v>
+        <v>53150</v>
       </c>
       <c r="AF152" t="inlineStr">
         <is>
@@ -19435,19 +19435,19 @@
         </is>
       </c>
       <c r="AA153" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AB153" t="n">
         <v>9</v>
       </c>
       <c r="AC153" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AD153" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AE153" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AF153" t="inlineStr">
         <is>
@@ -19562,19 +19562,19 @@
         </is>
       </c>
       <c r="AA154" t="n">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="AB154" t="n">
         <v>1229</v>
       </c>
       <c r="AC154" t="n">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="AD154" t="n">
-        <v>99948</v>
+        <v>99966</v>
       </c>
       <c r="AE154" t="n">
-        <v>212851</v>
+        <v>212934</v>
       </c>
       <c r="AF154" t="inlineStr">
         <is>
@@ -19689,19 +19689,19 @@
         </is>
       </c>
       <c r="AA155" t="n">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="AB155" t="n">
         <v>2128</v>
       </c>
       <c r="AC155" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AD155" t="n">
-        <v>60527</v>
+        <v>60538</v>
       </c>
       <c r="AE155" t="n">
-        <v>108669</v>
+        <v>108707</v>
       </c>
       <c r="AF155" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         </is>
       </c>
       <c r="AA156" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AB156" t="n">
         <v>467</v>
@@ -19825,10 +19825,10 @@
         <v>10255</v>
       </c>
       <c r="AD156" t="n">
-        <v>243471</v>
+        <v>243545</v>
       </c>
       <c r="AE156" t="n">
-        <v>512712</v>
+        <v>512957</v>
       </c>
       <c r="AF156" t="inlineStr">
         <is>
@@ -19939,19 +19939,19 @@
         </is>
       </c>
       <c r="AA157" t="n">
-        <v>1787</v>
+        <v>1818</v>
       </c>
       <c r="AB157" t="n">
-        <v>3220</v>
+        <v>3222</v>
       </c>
       <c r="AC157" t="n">
         <v>96</v>
       </c>
       <c r="AD157" t="n">
-        <v>28324</v>
+        <v>28326</v>
       </c>
       <c r="AE157" t="n">
-        <v>54310</v>
+        <v>54312</v>
       </c>
       <c r="AF157" t="inlineStr">
         <is>
@@ -20062,19 +20062,19 @@
         </is>
       </c>
       <c r="AA158" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AB158" t="n">
         <v>913</v>
       </c>
       <c r="AC158" t="n">
-        <v>6370</v>
+        <v>6372</v>
       </c>
       <c r="AD158" t="n">
-        <v>141740</v>
+        <v>141779</v>
       </c>
       <c r="AE158" t="n">
-        <v>286236</v>
+        <v>286346</v>
       </c>
       <c r="AF158" t="inlineStr">
         <is>
@@ -20185,19 +20185,19 @@
         </is>
       </c>
       <c r="AA159" t="n">
-        <v>1238</v>
+        <v>1226</v>
       </c>
       <c r="AB159" t="n">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="AC159" t="n">
         <v>182</v>
       </c>
       <c r="AD159" t="n">
-        <v>28571</v>
+        <v>28583</v>
       </c>
       <c r="AE159" t="n">
-        <v>50228</v>
+        <v>50248</v>
       </c>
       <c r="AF159" t="inlineStr">
         <is>
@@ -20312,19 +20312,19 @@
         </is>
       </c>
       <c r="AA160" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AB160" t="n">
         <v>45</v>
       </c>
       <c r="AC160" t="n">
-        <v>111705</v>
+        <v>111746</v>
       </c>
       <c r="AD160" t="n">
-        <v>1148687</v>
+        <v>1149283</v>
       </c>
       <c r="AE160" t="n">
-        <v>1921298</v>
+        <v>1922324</v>
       </c>
       <c r="AF160" t="inlineStr">
         <is>
@@ -20435,19 +20435,19 @@
         </is>
       </c>
       <c r="AA161" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AB161" t="n">
         <v>177</v>
       </c>
       <c r="AC161" t="n">
-        <v>30599</v>
+        <v>30612</v>
       </c>
       <c r="AD161" t="n">
-        <v>657898</v>
+        <v>658215</v>
       </c>
       <c r="AE161" t="n">
-        <v>985843</v>
+        <v>986397</v>
       </c>
       <c r="AF161" t="inlineStr">
         <is>
@@ -20562,19 +20562,19 @@
         </is>
       </c>
       <c r="AA162" t="n">
-        <v>3160</v>
+        <v>3147</v>
       </c>
       <c r="AB162" t="n">
-        <v>3340</v>
+        <v>3343</v>
       </c>
       <c r="AC162" t="n">
         <v>276</v>
       </c>
       <c r="AD162" t="n">
-        <v>15826</v>
+        <v>15829</v>
       </c>
       <c r="AE162" t="n">
-        <v>50995</v>
+        <v>51050</v>
       </c>
       <c r="AF162" t="inlineStr">
         <is>
@@ -20689,19 +20689,19 @@
         </is>
       </c>
       <c r="AA163" t="n">
-        <v>2986</v>
+        <v>2968</v>
       </c>
       <c r="AB163" t="n">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="AC163" t="n">
         <v>1379</v>
       </c>
       <c r="AD163" t="n">
-        <v>82208</v>
+        <v>82214</v>
       </c>
       <c r="AE163" t="n">
-        <v>192365</v>
+        <v>192416</v>
       </c>
       <c r="AF163" t="inlineStr">
         <is>
@@ -20816,19 +20816,19 @@
         </is>
       </c>
       <c r="AA164" t="n">
-        <v>3176</v>
+        <v>3215</v>
       </c>
       <c r="AB164" t="n">
         <v>1942</v>
       </c>
       <c r="AC164" t="n">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AD164" t="n">
-        <v>45203</v>
+        <v>45220</v>
       </c>
       <c r="AE164" t="n">
-        <v>122688</v>
+        <v>122807</v>
       </c>
       <c r="AF164" t="inlineStr">
         <is>
@@ -20943,19 +20943,19 @@
         </is>
       </c>
       <c r="AA165" t="n">
-        <v>1856</v>
+        <v>1883</v>
       </c>
       <c r="AB165" t="n">
         <v>1317</v>
       </c>
       <c r="AC165" t="n">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="AD165" t="n">
-        <v>80291</v>
+        <v>80311</v>
       </c>
       <c r="AE165" t="n">
-        <v>196984</v>
+        <v>197088</v>
       </c>
       <c r="AF165" t="inlineStr">
         <is>
@@ -21070,19 +21070,19 @@
         </is>
       </c>
       <c r="AA166" t="n">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AB166" t="n">
         <v>716</v>
       </c>
       <c r="AC166" t="n">
-        <v>8827</v>
+        <v>8828</v>
       </c>
       <c r="AD166" t="n">
-        <v>146166</v>
+        <v>146223</v>
       </c>
       <c r="AE166" t="n">
-        <v>359363</v>
+        <v>359562</v>
       </c>
       <c r="AF166" t="inlineStr">
         <is>
@@ -21197,19 +21197,19 @@
         </is>
       </c>
       <c r="AA167" t="n">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="AB167" t="n">
         <v>772</v>
       </c>
       <c r="AC167" t="n">
-        <v>5301</v>
+        <v>5303</v>
       </c>
       <c r="AD167" t="n">
-        <v>152563</v>
+        <v>152592</v>
       </c>
       <c r="AE167" t="n">
-        <v>337409</v>
+        <v>337604</v>
       </c>
       <c r="AF167" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         </is>
       </c>
       <c r="AA168" t="n">
-        <v>1172</v>
+        <v>1183</v>
       </c>
       <c r="AB168" t="n">
         <v>975</v>
@@ -21333,10 +21333,10 @@
         <v>5351</v>
       </c>
       <c r="AD168" t="n">
-        <v>60486</v>
+        <v>60519</v>
       </c>
       <c r="AE168" t="n">
-        <v>269599</v>
+        <v>269860</v>
       </c>
       <c r="AF168" t="inlineStr">
         <is>
@@ -21439,19 +21439,19 @@
         </is>
       </c>
       <c r="AA169" t="n">
-        <v>4177</v>
+        <v>4208</v>
       </c>
       <c r="AB169" t="n">
-        <v>2663</v>
+        <v>2667</v>
       </c>
       <c r="AC169" t="n">
         <v>186</v>
       </c>
       <c r="AD169" t="n">
-        <v>42394</v>
+        <v>42403</v>
       </c>
       <c r="AE169" t="n">
-        <v>76339</v>
+        <v>76354</v>
       </c>
       <c r="AF169" t="inlineStr">
         <is>
@@ -21558,19 +21558,19 @@
         </is>
       </c>
       <c r="AA170" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB170" t="n">
         <v>42</v>
       </c>
       <c r="AC170" t="n">
-        <v>86255</v>
+        <v>86295</v>
       </c>
       <c r="AD170" t="n">
-        <v>1014558</v>
+        <v>1015015</v>
       </c>
       <c r="AE170" t="n">
-        <v>1965187</v>
+        <v>1966181</v>
       </c>
       <c r="AF170" t="inlineStr">
         <is>
@@ -21673,19 +21673,19 @@
         </is>
       </c>
       <c r="AA171" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AB171" t="n">
         <v>639</v>
       </c>
       <c r="AC171" t="n">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="AD171" t="n">
-        <v>224491</v>
+        <v>224575</v>
       </c>
       <c r="AE171" t="n">
-        <v>396379</v>
+        <v>396555</v>
       </c>
       <c r="AF171" t="inlineStr">
         <is>
@@ -21792,19 +21792,19 @@
         </is>
       </c>
       <c r="AA172" t="n">
-        <v>5915</v>
+        <v>5919</v>
       </c>
       <c r="AB172" t="n">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="AC172" t="n">
         <v>199</v>
       </c>
       <c r="AD172" t="n">
-        <v>31399</v>
+        <v>31398</v>
       </c>
       <c r="AE172" t="n">
-        <v>78040</v>
+        <v>78057</v>
       </c>
       <c r="AF172" t="inlineStr">
         <is>
@@ -21911,19 +21911,19 @@
         </is>
       </c>
       <c r="AA173" t="n">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="AB173" t="n">
         <v>466</v>
       </c>
       <c r="AC173" t="n">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="AD173" t="n">
-        <v>247023</v>
+        <v>247060</v>
       </c>
       <c r="AE173" t="n">
-        <v>514273</v>
+        <v>514432</v>
       </c>
       <c r="AF173" t="inlineStr">
         <is>
@@ -22030,19 +22030,19 @@
         </is>
       </c>
       <c r="AA174" t="n">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="AB174" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AC174" t="n">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="AD174" t="n">
-        <v>151482</v>
+        <v>151505</v>
       </c>
       <c r="AE174" t="n">
-        <v>268022</v>
+        <v>268113</v>
       </c>
       <c r="AF174" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="AA175" t="n">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AB175" t="n">
         <v>874</v>
@@ -22158,10 +22158,10 @@
         <v>2983</v>
       </c>
       <c r="AD175" t="n">
-        <v>178880</v>
+        <v>178910</v>
       </c>
       <c r="AE175" t="n">
-        <v>304856</v>
+        <v>304988</v>
       </c>
       <c r="AF175" t="inlineStr">
         <is>
@@ -22268,19 +22268,19 @@
         </is>
       </c>
       <c r="AA176" t="n">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="AB176" t="n">
         <v>1229</v>
       </c>
       <c r="AC176" t="n">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="AD176" t="n">
-        <v>99948</v>
+        <v>99966</v>
       </c>
       <c r="AE176" t="n">
-        <v>212851</v>
+        <v>212934</v>
       </c>
       <c r="AF176" t="inlineStr">
         <is>
@@ -22383,19 +22383,19 @@
         </is>
       </c>
       <c r="AA177" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AB177" t="n">
         <v>913</v>
       </c>
       <c r="AC177" t="n">
-        <v>6370</v>
+        <v>6372</v>
       </c>
       <c r="AD177" t="n">
-        <v>141740</v>
+        <v>141779</v>
       </c>
       <c r="AE177" t="n">
-        <v>286236</v>
+        <v>286346</v>
       </c>
       <c r="AF177" t="inlineStr">
         <is>
@@ -22516,13 +22516,13 @@
         <v>122</v>
       </c>
       <c r="AC178" t="n">
-        <v>57506</v>
+        <v>57568</v>
       </c>
       <c r="AD178" t="n">
-        <v>465965</v>
+        <v>466402</v>
       </c>
       <c r="AE178" t="n">
-        <v>1227446</v>
+        <v>1228459</v>
       </c>
       <c r="AF178" t="inlineStr">
         <is>
@@ -22637,19 +22637,19 @@
         </is>
       </c>
       <c r="AA179" t="n">
-        <v>1097</v>
+        <v>1112</v>
       </c>
       <c r="AB179" t="n">
-        <v>3277</v>
+        <v>3279</v>
       </c>
       <c r="AC179" t="n">
-        <v>1133</v>
+        <v>1138</v>
       </c>
       <c r="AD179" t="n">
-        <v>18564</v>
+        <v>18575</v>
       </c>
       <c r="AE179" t="n">
-        <v>52430</v>
+        <v>52494</v>
       </c>
       <c r="AF179" t="inlineStr">
         <is>
@@ -22764,19 +22764,19 @@
         </is>
       </c>
       <c r="AA180" t="n">
-        <v>4695</v>
+        <v>4670</v>
       </c>
       <c r="AB180" t="n">
         <v>1370</v>
       </c>
       <c r="AC180" t="n">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="AD180" t="n">
-        <v>86305</v>
+        <v>86319</v>
       </c>
       <c r="AE180" t="n">
-        <v>189192</v>
+        <v>189276</v>
       </c>
       <c r="AF180" t="inlineStr">
         <is>
@@ -22891,19 +22891,19 @@
         </is>
       </c>
       <c r="AA181" t="n">
-        <v>3951</v>
+        <v>3935</v>
       </c>
       <c r="AB181" t="n">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="AC181" t="n">
         <v>472</v>
       </c>
       <c r="AD181" t="n">
-        <v>55031</v>
+        <v>55040</v>
       </c>
       <c r="AE181" t="n">
-        <v>114589</v>
+        <v>114627</v>
       </c>
       <c r="AF181" t="inlineStr">
         <is>
@@ -23014,19 +23014,19 @@
         </is>
       </c>
       <c r="AA182" t="n">
-        <v>4177</v>
+        <v>4208</v>
       </c>
       <c r="AB182" t="n">
-        <v>2663</v>
+        <v>2667</v>
       </c>
       <c r="AC182" t="n">
         <v>186</v>
       </c>
       <c r="AD182" t="n">
-        <v>42394</v>
+        <v>42403</v>
       </c>
       <c r="AE182" t="n">
-        <v>76339</v>
+        <v>76354</v>
       </c>
       <c r="AF182" t="inlineStr">
         <is>
@@ -23141,19 +23141,19 @@
         </is>
       </c>
       <c r="AA183" t="n">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AB183" t="n">
         <v>716</v>
       </c>
       <c r="AC183" t="n">
-        <v>8827</v>
+        <v>8828</v>
       </c>
       <c r="AD183" t="n">
-        <v>146166</v>
+        <v>146223</v>
       </c>
       <c r="AE183" t="n">
-        <v>359363</v>
+        <v>359562</v>
       </c>
       <c r="AF183" t="inlineStr">
         <is>
@@ -23268,7 +23268,7 @@
         </is>
       </c>
       <c r="AA184" t="n">
-        <v>2458</v>
+        <v>2443</v>
       </c>
       <c r="AB184" t="n">
         <v>484</v>
@@ -23277,10 +23277,10 @@
         <v>4174</v>
       </c>
       <c r="AD184" t="n">
-        <v>260340</v>
+        <v>260389</v>
       </c>
       <c r="AE184" t="n">
-        <v>499813</v>
+        <v>500003</v>
       </c>
       <c r="AF184" t="inlineStr">
         <is>
@@ -23395,19 +23395,19 @@
         </is>
       </c>
       <c r="AA185" t="n">
-        <v>5915</v>
+        <v>5919</v>
       </c>
       <c r="AB185" t="n">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="AC185" t="n">
         <v>199</v>
       </c>
       <c r="AD185" t="n">
-        <v>31399</v>
+        <v>31398</v>
       </c>
       <c r="AE185" t="n">
-        <v>78040</v>
+        <v>78057</v>
       </c>
       <c r="AF185" t="inlineStr">
         <is>
@@ -23522,19 +23522,19 @@
         </is>
       </c>
       <c r="AA186" t="n">
-        <v>6887</v>
+        <v>6900</v>
       </c>
       <c r="AB186" t="n">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AC186" t="n">
         <v>360</v>
       </c>
       <c r="AD186" t="n">
-        <v>81363</v>
+        <v>81380</v>
       </c>
       <c r="AE186" t="n">
-        <v>153401</v>
+        <v>153499</v>
       </c>
       <c r="AF186" t="inlineStr">
         <is>
@@ -23649,19 +23649,19 @@
         </is>
       </c>
       <c r="AA187" t="n">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="AB187" t="n">
         <v>466</v>
       </c>
       <c r="AC187" t="n">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="AD187" t="n">
-        <v>247023</v>
+        <v>247060</v>
       </c>
       <c r="AE187" t="n">
-        <v>514273</v>
+        <v>514432</v>
       </c>
       <c r="AF187" t="inlineStr">
         <is>
@@ -23776,19 +23776,19 @@
         </is>
       </c>
       <c r="AA188" t="n">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="AB188" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AC188" t="n">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="AD188" t="n">
-        <v>151482</v>
+        <v>151505</v>
       </c>
       <c r="AE188" t="n">
-        <v>268022</v>
+        <v>268113</v>
       </c>
       <c r="AF188" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         </is>
       </c>
       <c r="AA189" t="n">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AB189" t="n">
         <v>874</v>
@@ -23912,10 +23912,10 @@
         <v>2983</v>
       </c>
       <c r="AD189" t="n">
-        <v>178880</v>
+        <v>178910</v>
       </c>
       <c r="AE189" t="n">
-        <v>304856</v>
+        <v>304988</v>
       </c>
       <c r="AF189" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         </is>
       </c>
       <c r="AA190" t="n">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AB190" t="n">
         <v>944</v>
@@ -24039,10 +24039,10 @@
         <v>4172</v>
       </c>
       <c r="AD190" t="n">
-        <v>85543</v>
+        <v>85567</v>
       </c>
       <c r="AE190" t="n">
-        <v>277422</v>
+        <v>277575</v>
       </c>
       <c r="AF190" t="inlineStr">
         <is>
@@ -24157,19 +24157,19 @@
         </is>
       </c>
       <c r="AA191" t="n">
-        <v>1136</v>
+        <v>1152</v>
       </c>
       <c r="AB191" t="n">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="AC191" t="n">
-        <v>2406</v>
+        <v>2412</v>
       </c>
       <c r="AD191" t="n">
-        <v>64290</v>
+        <v>64341</v>
       </c>
       <c r="AE191" t="n">
-        <v>142532</v>
+        <v>142699</v>
       </c>
       <c r="AF191" t="inlineStr">
         <is>
@@ -24284,19 +24284,19 @@
         </is>
       </c>
       <c r="AA192" t="n">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AB192" t="n">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AC192" t="n">
         <v>3677</v>
       </c>
       <c r="AD192" t="n">
-        <v>99473</v>
+        <v>99506</v>
       </c>
       <c r="AE192" t="n">
-        <v>179014</v>
+        <v>179117</v>
       </c>
       <c r="AF192" t="inlineStr">
         <is>
@@ -24411,19 +24411,19 @@
         </is>
       </c>
       <c r="AA193" t="n">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="AB193" t="n">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="AC193" t="n">
         <v>1136</v>
       </c>
       <c r="AD193" t="n">
-        <v>67937</v>
+        <v>67958</v>
       </c>
       <c r="AE193" t="n">
-        <v>113509</v>
+        <v>113572</v>
       </c>
       <c r="AF193" t="inlineStr">
         <is>
@@ -24538,19 +24538,19 @@
         </is>
       </c>
       <c r="AA194" t="n">
-        <v>3091</v>
+        <v>3072</v>
       </c>
       <c r="AB194" t="n">
         <v>3029</v>
       </c>
       <c r="AC194" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AD194" t="n">
-        <v>29705</v>
+        <v>29709</v>
       </c>
       <c r="AE194" t="n">
-        <v>60992</v>
+        <v>61034</v>
       </c>
       <c r="AF194" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         </is>
       </c>
       <c r="AA195" t="n">
-        <v>2387</v>
+        <v>2413</v>
       </c>
       <c r="AB195" t="n">
         <v>1996</v>
@@ -24674,10 +24674,10 @@
         <v>1142</v>
       </c>
       <c r="AD195" t="n">
-        <v>52930</v>
+        <v>52934</v>
       </c>
       <c r="AE195" t="n">
-        <v>119163</v>
+        <v>119221</v>
       </c>
       <c r="AF195" t="inlineStr">
         <is>
@@ -24792,19 +24792,19 @@
         </is>
       </c>
       <c r="AA196" t="n">
-        <v>3017</v>
+        <v>3008</v>
       </c>
       <c r="AB196" t="n">
-        <v>3250</v>
+        <v>3252</v>
       </c>
       <c r="AC196" t="n">
         <v>312</v>
       </c>
       <c r="AD196" t="n">
-        <v>26022</v>
+        <v>26024</v>
       </c>
       <c r="AE196" t="n">
-        <v>53129</v>
+        <v>53150</v>
       </c>
       <c r="AF196" t="inlineStr">
         <is>
@@ -24919,19 +24919,19 @@
         </is>
       </c>
       <c r="AA197" t="n">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="AB197" t="n">
         <v>772</v>
       </c>
       <c r="AC197" t="n">
-        <v>5301</v>
+        <v>5303</v>
       </c>
       <c r="AD197" t="n">
-        <v>152563</v>
+        <v>152592</v>
       </c>
       <c r="AE197" t="n">
-        <v>337409</v>
+        <v>337604</v>
       </c>
       <c r="AF197" t="inlineStr">
         <is>
@@ -25046,19 +25046,19 @@
         </is>
       </c>
       <c r="AA198" t="n">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="AB198" t="n">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="AC198" t="n">
         <v>2416</v>
       </c>
       <c r="AD198" t="n">
-        <v>92388</v>
+        <v>92422</v>
       </c>
       <c r="AE198" t="n">
-        <v>165966</v>
+        <v>166077</v>
       </c>
       <c r="AF198" t="inlineStr">
         <is>
@@ -25169,19 +25169,19 @@
         </is>
       </c>
       <c r="AA199" t="n">
-        <v>1238</v>
+        <v>1226</v>
       </c>
       <c r="AB199" t="n">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="AC199" t="n">
         <v>182</v>
       </c>
       <c r="AD199" t="n">
-        <v>28571</v>
+        <v>28583</v>
       </c>
       <c r="AE199" t="n">
-        <v>50228</v>
+        <v>50248</v>
       </c>
       <c r="AF199" t="inlineStr">
         <is>
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="AA200" t="n">
-        <v>4391</v>
+        <v>4384</v>
       </c>
       <c r="AB200" t="n">
         <v>912</v>
@@ -25305,10 +25305,10 @@
         <v>1465</v>
       </c>
       <c r="AD200" t="n">
-        <v>137883</v>
+        <v>137897</v>
       </c>
       <c r="AE200" t="n">
-        <v>286332</v>
+        <v>286467</v>
       </c>
       <c r="AF200" t="inlineStr">
         <is>
@@ -25423,19 +25423,19 @@
         </is>
       </c>
       <c r="AA201" t="n">
-        <v>3160</v>
+        <v>3147</v>
       </c>
       <c r="AB201" t="n">
-        <v>3340</v>
+        <v>3343</v>
       </c>
       <c r="AC201" t="n">
         <v>276</v>
       </c>
       <c r="AD201" t="n">
-        <v>15826</v>
+        <v>15829</v>
       </c>
       <c r="AE201" t="n">
-        <v>50995</v>
+        <v>51050</v>
       </c>
       <c r="AF201" t="inlineStr">
         <is>
@@ -25550,19 +25550,19 @@
         </is>
       </c>
       <c r="AA202" t="n">
-        <v>3176</v>
+        <v>3215</v>
       </c>
       <c r="AB202" t="n">
         <v>1942</v>
       </c>
       <c r="AC202" t="n">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AD202" t="n">
-        <v>45203</v>
+        <v>45220</v>
       </c>
       <c r="AE202" t="n">
-        <v>122688</v>
+        <v>122807</v>
       </c>
       <c r="AF202" t="inlineStr">
         <is>
@@ -25677,19 +25677,19 @@
         </is>
       </c>
       <c r="AA203" t="n">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="AB203" t="n">
         <v>638</v>
       </c>
       <c r="AC203" t="n">
-        <v>8547</v>
+        <v>8558</v>
       </c>
       <c r="AD203" t="n">
-        <v>171967</v>
+        <v>172117</v>
       </c>
       <c r="AE203" t="n">
-        <v>396752</v>
+        <v>397130</v>
       </c>
       <c r="AF203" t="inlineStr">
         <is>
@@ -25804,19 +25804,19 @@
         </is>
       </c>
       <c r="AA204" t="n">
-        <v>8302</v>
+        <v>8286</v>
       </c>
       <c r="AB204" t="n">
-        <v>6418</v>
+        <v>6424</v>
       </c>
       <c r="AC204" t="n">
         <v>14</v>
       </c>
       <c r="AD204" t="n">
-        <v>3398</v>
+        <v>3400</v>
       </c>
       <c r="AE204" t="n">
-        <v>11592</v>
+        <v>11597</v>
       </c>
       <c r="AF204" t="inlineStr">
         <is>
@@ -25931,19 +25931,19 @@
         </is>
       </c>
       <c r="AA205" t="n">
-        <v>1475</v>
+        <v>1482</v>
       </c>
       <c r="AB205" t="n">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="AC205" t="n">
         <v>1490</v>
       </c>
       <c r="AD205" t="n">
-        <v>53125</v>
+        <v>53137</v>
       </c>
       <c r="AE205" t="n">
-        <v>103982</v>
+        <v>104025</v>
       </c>
       <c r="AF205" t="inlineStr">
         <is>
@@ -26058,19 +26058,19 @@
         </is>
       </c>
       <c r="AA206" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AB206" t="n">
         <v>9</v>
       </c>
       <c r="AC206" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AD206" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AE206" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AF206" t="inlineStr">
         <is>
@@ -26177,19 +26177,19 @@
         </is>
       </c>
       <c r="AA207" t="n">
-        <v>4695</v>
+        <v>4670</v>
       </c>
       <c r="AB207" t="n">
         <v>1370</v>
       </c>
       <c r="AC207" t="n">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="AD207" t="n">
-        <v>86305</v>
+        <v>86319</v>
       </c>
       <c r="AE207" t="n">
-        <v>189192</v>
+        <v>189276</v>
       </c>
       <c r="AF207" t="inlineStr">
         <is>
@@ -26296,19 +26296,19 @@
         </is>
       </c>
       <c r="AA208" t="n">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AB208" t="n">
         <v>716</v>
       </c>
       <c r="AC208" t="n">
-        <v>8827</v>
+        <v>8828</v>
       </c>
       <c r="AD208" t="n">
-        <v>146166</v>
+        <v>146223</v>
       </c>
       <c r="AE208" t="n">
-        <v>359363</v>
+        <v>359562</v>
       </c>
       <c r="AF208" t="inlineStr">
         <is>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="AA209" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB209" t="n">
         <v>42</v>
       </c>
       <c r="AC209" t="n">
-        <v>86255</v>
+        <v>86295</v>
       </c>
       <c r="AD209" t="n">
-        <v>1014558</v>
+        <v>1015015</v>
       </c>
       <c r="AE209" t="n">
-        <v>1965187</v>
+        <v>1966181</v>
       </c>
       <c r="AF209" t="inlineStr">
         <is>
@@ -26534,19 +26534,19 @@
         </is>
       </c>
       <c r="AA210" t="n">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AB210" t="n">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="AC210" t="n">
         <v>1388</v>
       </c>
       <c r="AD210" t="n">
-        <v>113308</v>
+        <v>113360</v>
       </c>
       <c r="AE210" t="n">
-        <v>202876</v>
+        <v>203059</v>
       </c>
       <c r="AF210" t="inlineStr">
         <is>
@@ -26653,19 +26653,19 @@
         </is>
       </c>
       <c r="AA211" t="n">
-        <v>3091</v>
+        <v>3072</v>
       </c>
       <c r="AB211" t="n">
         <v>3029</v>
       </c>
       <c r="AC211" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AD211" t="n">
-        <v>29705</v>
+        <v>29709</v>
       </c>
       <c r="AE211" t="n">
-        <v>60992</v>
+        <v>61034</v>
       </c>
       <c r="AF211" t="inlineStr">
         <is>
@@ -26772,19 +26772,19 @@
         </is>
       </c>
       <c r="AA212" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AB212" t="n">
         <v>9</v>
       </c>
       <c r="AC212" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AD212" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AE212" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AF212" t="inlineStr">
         <is>
@@ -26887,19 +26887,19 @@
         </is>
       </c>
       <c r="AA213" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AB213" t="n">
         <v>913</v>
       </c>
       <c r="AC213" t="n">
-        <v>6370</v>
+        <v>6372</v>
       </c>
       <c r="AD213" t="n">
-        <v>141740</v>
+        <v>141779</v>
       </c>
       <c r="AE213" t="n">
-        <v>286236</v>
+        <v>286346</v>
       </c>
       <c r="AF213" t="inlineStr">
         <is>
@@ -27006,19 +27006,19 @@
         </is>
       </c>
       <c r="AA214" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AB214" t="n">
         <v>45</v>
       </c>
       <c r="AC214" t="n">
-        <v>111705</v>
+        <v>111746</v>
       </c>
       <c r="AD214" t="n">
-        <v>1148687</v>
+        <v>1149283</v>
       </c>
       <c r="AE214" t="n">
-        <v>1921298</v>
+        <v>1922324</v>
       </c>
       <c r="AF214" t="inlineStr">
         <is>
@@ -27121,19 +27121,19 @@
         </is>
       </c>
       <c r="AA215" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AB215" t="n">
         <v>177</v>
       </c>
       <c r="AC215" t="n">
-        <v>30599</v>
+        <v>30612</v>
       </c>
       <c r="AD215" t="n">
-        <v>657898</v>
+        <v>658215</v>
       </c>
       <c r="AE215" t="n">
-        <v>985843</v>
+        <v>986397</v>
       </c>
       <c r="AF215" t="inlineStr">
         <is>
@@ -27240,19 +27240,19 @@
         </is>
       </c>
       <c r="AA216" t="n">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AB216" t="n">
         <v>261</v>
       </c>
       <c r="AC216" t="n">
-        <v>16780</v>
+        <v>16786</v>
       </c>
       <c r="AD216" t="n">
-        <v>387605</v>
+        <v>387745</v>
       </c>
       <c r="AE216" t="n">
-        <v>799739</v>
+        <v>800077</v>
       </c>
       <c r="AF216" t="inlineStr">
         <is>
@@ -27359,19 +27359,19 @@
         </is>
       </c>
       <c r="AA217" t="n">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="AB217" t="n">
         <v>638</v>
       </c>
       <c r="AC217" t="n">
-        <v>8547</v>
+        <v>8558</v>
       </c>
       <c r="AD217" t="n">
-        <v>171967</v>
+        <v>172117</v>
       </c>
       <c r="AE217" t="n">
-        <v>396752</v>
+        <v>397130</v>
       </c>
       <c r="AF217" t="inlineStr">
         <is>
@@ -27478,19 +27478,19 @@
         </is>
       </c>
       <c r="AA218" t="n">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="AB218" t="n">
         <v>1136</v>
       </c>
       <c r="AC218" t="n">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="AD218" t="n">
-        <v>106077</v>
+        <v>106085</v>
       </c>
       <c r="AE218" t="n">
-        <v>232527</v>
+        <v>232604</v>
       </c>
       <c r="AF218" t="inlineStr">
         <is>
@@ -27597,19 +27597,19 @@
         </is>
       </c>
       <c r="AA219" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AB219" t="n">
         <v>17</v>
       </c>
       <c r="AC219" t="n">
-        <v>237054</v>
+        <v>237229</v>
       </c>
       <c r="AD219" t="n">
-        <v>1433761</v>
+        <v>1434888</v>
       </c>
       <c r="AE219" t="n">
-        <v>2522600</v>
+        <v>2524779</v>
       </c>
       <c r="AF219" t="inlineStr">
         <is>
@@ -27716,7 +27716,7 @@
         </is>
       </c>
       <c r="AA220" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AB220" t="n">
         <v>467</v>
@@ -27725,10 +27725,10 @@
         <v>10255</v>
       </c>
       <c r="AD220" t="n">
-        <v>243471</v>
+        <v>243545</v>
       </c>
       <c r="AE220" t="n">
-        <v>512712</v>
+        <v>512957</v>
       </c>
       <c r="AF220" t="inlineStr">
         <is>
@@ -27843,19 +27843,19 @@
         </is>
       </c>
       <c r="AA221" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AB221" t="n">
         <v>17</v>
       </c>
       <c r="AC221" t="n">
-        <v>237054</v>
+        <v>237229</v>
       </c>
       <c r="AD221" t="n">
-        <v>1433761</v>
+        <v>1434888</v>
       </c>
       <c r="AE221" t="n">
-        <v>2522600</v>
+        <v>2524779</v>
       </c>
       <c r="AF221" t="inlineStr">
         <is>
@@ -27972,13 +27972,13 @@
         <v>208</v>
       </c>
       <c r="AC222" t="n">
-        <v>14408</v>
+        <v>14410</v>
       </c>
       <c r="AD222" t="n">
-        <v>539696</v>
+        <v>539935</v>
       </c>
       <c r="AE222" t="n">
-        <v>911525</v>
+        <v>912054</v>
       </c>
       <c r="AF222" t="inlineStr">
         <is>
@@ -28093,19 +28093,19 @@
         </is>
       </c>
       <c r="AA223" t="n">
-        <v>1856</v>
+        <v>1883</v>
       </c>
       <c r="AB223" t="n">
         <v>1317</v>
       </c>
       <c r="AC223" t="n">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="AD223" t="n">
-        <v>80291</v>
+        <v>80311</v>
       </c>
       <c r="AE223" t="n">
-        <v>196984</v>
+        <v>197088</v>
       </c>
       <c r="AF223" t="inlineStr">
         <is>
@@ -28220,19 +28220,19 @@
         </is>
       </c>
       <c r="AA224" t="n">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AB224" t="n">
         <v>716</v>
       </c>
       <c r="AC224" t="n">
-        <v>8827</v>
+        <v>8828</v>
       </c>
       <c r="AD224" t="n">
-        <v>146166</v>
+        <v>146223</v>
       </c>
       <c r="AE224" t="n">
-        <v>359363</v>
+        <v>359562</v>
       </c>
       <c r="AF224" t="inlineStr">
         <is>
@@ -28347,19 +28347,19 @@
         </is>
       </c>
       <c r="AA225" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB225" t="n">
         <v>42</v>
       </c>
       <c r="AC225" t="n">
-        <v>86255</v>
+        <v>86295</v>
       </c>
       <c r="AD225" t="n">
-        <v>1014558</v>
+        <v>1015015</v>
       </c>
       <c r="AE225" t="n">
-        <v>1965187</v>
+        <v>1966181</v>
       </c>
       <c r="AF225" t="inlineStr">
         <is>
@@ -28470,19 +28470,19 @@
         </is>
       </c>
       <c r="AA226" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AB226" t="n">
         <v>639</v>
       </c>
       <c r="AC226" t="n">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="AD226" t="n">
-        <v>224491</v>
+        <v>224575</v>
       </c>
       <c r="AE226" t="n">
-        <v>396379</v>
+        <v>396555</v>
       </c>
       <c r="AF226" t="inlineStr">
         <is>
@@ -28597,19 +28597,19 @@
         </is>
       </c>
       <c r="AA227" t="n">
-        <v>3643</v>
+        <v>3617</v>
       </c>
       <c r="AB227" t="n">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="AC227" t="n">
         <v>1281</v>
       </c>
       <c r="AD227" t="n">
-        <v>100497</v>
+        <v>100499</v>
       </c>
       <c r="AE227" t="n">
-        <v>188739</v>
+        <v>188790</v>
       </c>
       <c r="AF227" t="inlineStr">
         <is>
@@ -28724,19 +28724,19 @@
         </is>
       </c>
       <c r="AA228" t="n">
-        <v>6887</v>
+        <v>6900</v>
       </c>
       <c r="AB228" t="n">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AC228" t="n">
         <v>360</v>
       </c>
       <c r="AD228" t="n">
-        <v>81363</v>
+        <v>81380</v>
       </c>
       <c r="AE228" t="n">
-        <v>153401</v>
+        <v>153499</v>
       </c>
       <c r="AF228" t="inlineStr">
         <is>
@@ -28851,19 +28851,19 @@
         </is>
       </c>
       <c r="AA229" t="n">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="AB229" t="n">
         <v>466</v>
       </c>
       <c r="AC229" t="n">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="AD229" t="n">
-        <v>247023</v>
+        <v>247060</v>
       </c>
       <c r="AE229" t="n">
-        <v>514273</v>
+        <v>514432</v>
       </c>
       <c r="AF229" t="inlineStr">
         <is>
@@ -28978,19 +28978,19 @@
         </is>
       </c>
       <c r="AA230" t="n">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="AB230" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AC230" t="n">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="AD230" t="n">
-        <v>151482</v>
+        <v>151505</v>
       </c>
       <c r="AE230" t="n">
-        <v>268022</v>
+        <v>268113</v>
       </c>
       <c r="AF230" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         </is>
       </c>
       <c r="AA231" t="n">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AB231" t="n">
         <v>874</v>
@@ -29114,10 +29114,10 @@
         <v>2983</v>
       </c>
       <c r="AD231" t="n">
-        <v>178880</v>
+        <v>178910</v>
       </c>
       <c r="AE231" t="n">
-        <v>304856</v>
+        <v>304988</v>
       </c>
       <c r="AF231" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         </is>
       </c>
       <c r="AA232" t="n">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AB232" t="n">
         <v>944</v>
@@ -29241,10 +29241,10 @@
         <v>4172</v>
       </c>
       <c r="AD232" t="n">
-        <v>85543</v>
+        <v>85567</v>
       </c>
       <c r="AE232" t="n">
-        <v>277422</v>
+        <v>277575</v>
       </c>
       <c r="AF232" t="inlineStr">
         <is>
@@ -29359,19 +29359,19 @@
         </is>
       </c>
       <c r="AA233" t="n">
-        <v>1827</v>
+        <v>1841</v>
       </c>
       <c r="AB233" t="n">
-        <v>4667</v>
+        <v>4671</v>
       </c>
       <c r="AC233" t="n">
         <v>244</v>
       </c>
       <c r="AD233" t="n">
-        <v>13919</v>
+        <v>13923</v>
       </c>
       <c r="AE233" t="n">
-        <v>26125</v>
+        <v>26156</v>
       </c>
       <c r="AF233" t="inlineStr">
         <is>
@@ -29486,19 +29486,19 @@
         </is>
       </c>
       <c r="AA234" t="n">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AB234" t="n">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="AC234" t="n">
         <v>1388</v>
       </c>
       <c r="AD234" t="n">
-        <v>113308</v>
+        <v>113360</v>
       </c>
       <c r="AE234" t="n">
-        <v>202876</v>
+        <v>203059</v>
       </c>
       <c r="AF234" t="inlineStr">
         <is>
@@ -29619,13 +29619,13 @@
         <v>302</v>
       </c>
       <c r="AC235" t="n">
-        <v>29777</v>
+        <v>29794</v>
       </c>
       <c r="AD235" t="n">
-        <v>384919</v>
+        <v>385173</v>
       </c>
       <c r="AE235" t="n">
-        <v>716578</v>
+        <v>717128</v>
       </c>
       <c r="AF235" t="inlineStr">
         <is>
@@ -29740,19 +29740,19 @@
         </is>
       </c>
       <c r="AA236" t="n">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AB236" t="n">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AC236" t="n">
         <v>3677</v>
       </c>
       <c r="AD236" t="n">
-        <v>99473</v>
+        <v>99506</v>
       </c>
       <c r="AE236" t="n">
-        <v>179014</v>
+        <v>179117</v>
       </c>
       <c r="AF236" t="inlineStr">
         <is>
@@ -29867,19 +29867,19 @@
         </is>
       </c>
       <c r="AA237" t="n">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="AB237" t="n">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="AC237" t="n">
         <v>1136</v>
       </c>
       <c r="AD237" t="n">
-        <v>67937</v>
+        <v>67958</v>
       </c>
       <c r="AE237" t="n">
-        <v>113509</v>
+        <v>113572</v>
       </c>
       <c r="AF237" t="inlineStr">
         <is>
@@ -29996,13 +29996,13 @@
         <v>341</v>
       </c>
       <c r="AC238" t="n">
-        <v>13625</v>
+        <v>13630</v>
       </c>
       <c r="AD238" t="n">
-        <v>346709</v>
+        <v>346867</v>
       </c>
       <c r="AE238" t="n">
-        <v>671007</v>
+        <v>671385</v>
       </c>
       <c r="AF238" t="inlineStr">
         <is>
@@ -30117,19 +30117,19 @@
         </is>
       </c>
       <c r="AA239" t="n">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="AB239" t="n">
         <v>1419</v>
       </c>
       <c r="AC239" t="n">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="AD239" t="n">
-        <v>72794</v>
+        <v>72806</v>
       </c>
       <c r="AE239" t="n">
-        <v>181163</v>
+        <v>181226</v>
       </c>
       <c r="AF239" t="inlineStr">
         <is>
@@ -30244,7 +30244,7 @@
         </is>
       </c>
       <c r="AA240" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AB240" t="n">
         <v>467</v>
@@ -30253,10 +30253,10 @@
         <v>10255</v>
       </c>
       <c r="AD240" t="n">
-        <v>243471</v>
+        <v>243545</v>
       </c>
       <c r="AE240" t="n">
-        <v>512712</v>
+        <v>512957</v>
       </c>
       <c r="AF240" t="inlineStr">
         <is>
@@ -30367,19 +30367,19 @@
         </is>
       </c>
       <c r="AA241" t="n">
-        <v>1787</v>
+        <v>1818</v>
       </c>
       <c r="AB241" t="n">
-        <v>3220</v>
+        <v>3222</v>
       </c>
       <c r="AC241" t="n">
         <v>96</v>
       </c>
       <c r="AD241" t="n">
-        <v>28324</v>
+        <v>28326</v>
       </c>
       <c r="AE241" t="n">
-        <v>54310</v>
+        <v>54312</v>
       </c>
       <c r="AF241" t="inlineStr">
         <is>
@@ -30490,19 +30490,19 @@
         </is>
       </c>
       <c r="AA242" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AB242" t="n">
         <v>913</v>
       </c>
       <c r="AC242" t="n">
-        <v>6370</v>
+        <v>6372</v>
       </c>
       <c r="AD242" t="n">
-        <v>141740</v>
+        <v>141779</v>
       </c>
       <c r="AE242" t="n">
-        <v>286236</v>
+        <v>286346</v>
       </c>
       <c r="AF242" t="inlineStr">
         <is>
@@ -30617,19 +30617,19 @@
         </is>
       </c>
       <c r="AA243" t="n">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="AB243" t="n">
         <v>772</v>
       </c>
       <c r="AC243" t="n">
-        <v>5301</v>
+        <v>5303</v>
       </c>
       <c r="AD243" t="n">
-        <v>152563</v>
+        <v>152592</v>
       </c>
       <c r="AE243" t="n">
-        <v>337409</v>
+        <v>337604</v>
       </c>
       <c r="AF243" t="inlineStr">
         <is>
@@ -30744,19 +30744,19 @@
         </is>
       </c>
       <c r="AA244" t="n">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="AB244" t="n">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="AC244" t="n">
         <v>2416</v>
       </c>
       <c r="AD244" t="n">
-        <v>92388</v>
+        <v>92422</v>
       </c>
       <c r="AE244" t="n">
-        <v>165966</v>
+        <v>166077</v>
       </c>
       <c r="AF244" t="inlineStr">
         <is>
@@ -30871,19 +30871,19 @@
         </is>
       </c>
       <c r="AA245" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AB245" t="n">
         <v>45</v>
       </c>
       <c r="AC245" t="n">
-        <v>111705</v>
+        <v>111746</v>
       </c>
       <c r="AD245" t="n">
-        <v>1148687</v>
+        <v>1149283</v>
       </c>
       <c r="AE245" t="n">
-        <v>1921298</v>
+        <v>1922324</v>
       </c>
       <c r="AF245" t="inlineStr">
         <is>
@@ -30994,19 +30994,19 @@
         </is>
       </c>
       <c r="AA246" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AB246" t="n">
         <v>177</v>
       </c>
       <c r="AC246" t="n">
-        <v>30599</v>
+        <v>30612</v>
       </c>
       <c r="AD246" t="n">
-        <v>657898</v>
+        <v>658215</v>
       </c>
       <c r="AE246" t="n">
-        <v>985843</v>
+        <v>986397</v>
       </c>
       <c r="AF246" t="inlineStr">
         <is>
@@ -31121,19 +31121,19 @@
         </is>
       </c>
       <c r="AA247" t="n">
-        <v>2550</v>
+        <v>2587</v>
       </c>
       <c r="AB247" t="n">
         <v>1695</v>
       </c>
       <c r="AC247" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AD247" t="n">
-        <v>56864</v>
+        <v>56872</v>
       </c>
       <c r="AE247" t="n">
-        <v>146257</v>
+        <v>146304</v>
       </c>
       <c r="AF247" t="inlineStr">
         <is>
@@ -31248,19 +31248,19 @@
         </is>
       </c>
       <c r="AA248" t="n">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="AB248" t="n">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="AC248" t="n">
         <v>3046</v>
       </c>
       <c r="AD248" t="n">
-        <v>86901</v>
+        <v>86921</v>
       </c>
       <c r="AE248" t="n">
-        <v>191982</v>
+        <v>192092</v>
       </c>
       <c r="AF248" t="inlineStr">
         <is>
@@ -31375,7 +31375,7 @@
         </is>
       </c>
       <c r="AA249" t="n">
-        <v>1172</v>
+        <v>1183</v>
       </c>
       <c r="AB249" t="n">
         <v>975</v>
@@ -31384,10 +31384,10 @@
         <v>5351</v>
       </c>
       <c r="AD249" t="n">
-        <v>60486</v>
+        <v>60519</v>
       </c>
       <c r="AE249" t="n">
-        <v>269599</v>
+        <v>269860</v>
       </c>
       <c r="AF249" t="inlineStr">
         <is>
@@ -31502,19 +31502,19 @@
         </is>
       </c>
       <c r="AA250" t="n">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AB250" t="n">
         <v>261</v>
       </c>
       <c r="AC250" t="n">
-        <v>16780</v>
+        <v>16786</v>
       </c>
       <c r="AD250" t="n">
-        <v>387605</v>
+        <v>387745</v>
       </c>
       <c r="AE250" t="n">
-        <v>799739</v>
+        <v>800077</v>
       </c>
       <c r="AF250" t="inlineStr">
         <is>
@@ -31629,19 +31629,19 @@
         </is>
       </c>
       <c r="AA251" t="n">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="AB251" t="n">
         <v>638</v>
       </c>
       <c r="AC251" t="n">
-        <v>8547</v>
+        <v>8558</v>
       </c>
       <c r="AD251" t="n">
-        <v>171967</v>
+        <v>172117</v>
       </c>
       <c r="AE251" t="n">
-        <v>396752</v>
+        <v>397130</v>
       </c>
       <c r="AF251" t="inlineStr">
         <is>
@@ -31756,19 +31756,19 @@
         </is>
       </c>
       <c r="AA252" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AB252" t="n">
         <v>9</v>
       </c>
       <c r="AC252" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AD252" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AE252" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AF252" t="inlineStr">
         <is>
@@ -31875,19 +31875,19 @@
         </is>
       </c>
       <c r="AA253" t="n">
-        <v>4695</v>
+        <v>4670</v>
       </c>
       <c r="AB253" t="n">
         <v>1370</v>
       </c>
       <c r="AC253" t="n">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="AD253" t="n">
-        <v>86305</v>
+        <v>86319</v>
       </c>
       <c r="AE253" t="n">
-        <v>189192</v>
+        <v>189276</v>
       </c>
       <c r="AF253" t="inlineStr">
         <is>
@@ -31990,19 +31990,19 @@
         </is>
       </c>
       <c r="AA254" t="n">
-        <v>2955</v>
+        <v>2934</v>
       </c>
       <c r="AB254" t="n">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="AC254" t="n">
         <v>260</v>
       </c>
       <c r="AD254" t="n">
-        <v>27834</v>
+        <v>27840</v>
       </c>
       <c r="AE254" t="n">
-        <v>56599</v>
+        <v>56606</v>
       </c>
       <c r="AF254" t="inlineStr">
         <is>
@@ -32111,13 +32111,13 @@
         <v>208</v>
       </c>
       <c r="AC255" t="n">
-        <v>14408</v>
+        <v>14410</v>
       </c>
       <c r="AD255" t="n">
-        <v>539696</v>
+        <v>539935</v>
       </c>
       <c r="AE255" t="n">
-        <v>911525</v>
+        <v>912054</v>
       </c>
       <c r="AF255" t="inlineStr">
         <is>
@@ -32220,19 +32220,19 @@
         </is>
       </c>
       <c r="AA256" t="n">
-        <v>4177</v>
+        <v>4208</v>
       </c>
       <c r="AB256" t="n">
-        <v>2663</v>
+        <v>2667</v>
       </c>
       <c r="AC256" t="n">
         <v>186</v>
       </c>
       <c r="AD256" t="n">
-        <v>42394</v>
+        <v>42403</v>
       </c>
       <c r="AE256" t="n">
-        <v>76339</v>
+        <v>76354</v>
       </c>
       <c r="AF256" t="inlineStr">
         <is>
@@ -32339,19 +32339,19 @@
         </is>
       </c>
       <c r="AA257" t="n">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="AB257" t="n">
         <v>638</v>
       </c>
       <c r="AC257" t="n">
-        <v>8547</v>
+        <v>8558</v>
       </c>
       <c r="AD257" t="n">
-        <v>171967</v>
+        <v>172117</v>
       </c>
       <c r="AE257" t="n">
-        <v>396752</v>
+        <v>397130</v>
       </c>
       <c r="AF257" t="inlineStr">
         <is>
@@ -32458,19 +32458,19 @@
         </is>
       </c>
       <c r="AA258" t="n">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="AB258" t="n">
         <v>466</v>
       </c>
       <c r="AC258" t="n">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="AD258" t="n">
-        <v>247023</v>
+        <v>247060</v>
       </c>
       <c r="AE258" t="n">
-        <v>514273</v>
+        <v>514432</v>
       </c>
       <c r="AF258" t="inlineStr">
         <is>
@@ -32577,7 +32577,7 @@
         </is>
       </c>
       <c r="AA259" t="n">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AB259" t="n">
         <v>874</v>
@@ -32586,10 +32586,10 @@
         <v>2983</v>
       </c>
       <c r="AD259" t="n">
-        <v>178880</v>
+        <v>178910</v>
       </c>
       <c r="AE259" t="n">
-        <v>304856</v>
+        <v>304988</v>
       </c>
       <c r="AF259" t="inlineStr">
         <is>
@@ -32696,19 +32696,19 @@
         </is>
       </c>
       <c r="AA260" t="n">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AB260" t="n">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="AC260" t="n">
         <v>1388</v>
       </c>
       <c r="AD260" t="n">
-        <v>113308</v>
+        <v>113360</v>
       </c>
       <c r="AE260" t="n">
-        <v>202876</v>
+        <v>203059</v>
       </c>
       <c r="AF260" t="inlineStr">
         <is>
@@ -32817,13 +32817,13 @@
         <v>341</v>
       </c>
       <c r="AC261" t="n">
-        <v>13625</v>
+        <v>13630</v>
       </c>
       <c r="AD261" t="n">
-        <v>346709</v>
+        <v>346867</v>
       </c>
       <c r="AE261" t="n">
-        <v>671007</v>
+        <v>671385</v>
       </c>
       <c r="AF261" t="inlineStr">
         <is>
@@ -32936,13 +32936,13 @@
         <v>122</v>
       </c>
       <c r="AC262" t="n">
-        <v>57506</v>
+        <v>57568</v>
       </c>
       <c r="AD262" t="n">
-        <v>465965</v>
+        <v>466402</v>
       </c>
       <c r="AE262" t="n">
-        <v>1227446</v>
+        <v>1228459</v>
       </c>
       <c r="AF262" t="inlineStr">
         <is>
@@ -33049,19 +33049,19 @@
         </is>
       </c>
       <c r="AA263" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AB263" t="n">
         <v>9</v>
       </c>
       <c r="AC263" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AD263" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AE263" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AF263" t="inlineStr">
         <is>
@@ -33168,7 +33168,7 @@
         </is>
       </c>
       <c r="AA264" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AB264" t="n">
         <v>467</v>
@@ -33177,10 +33177,10 @@
         <v>10255</v>
       </c>
       <c r="AD264" t="n">
-        <v>243471</v>
+        <v>243545</v>
       </c>
       <c r="AE264" t="n">
-        <v>512712</v>
+        <v>512957</v>
       </c>
       <c r="AF264" t="inlineStr">
         <is>
@@ -33287,19 +33287,19 @@
         </is>
       </c>
       <c r="AA265" t="n">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AB265" t="n">
         <v>261</v>
       </c>
       <c r="AC265" t="n">
-        <v>16780</v>
+        <v>16786</v>
       </c>
       <c r="AD265" t="n">
-        <v>387605</v>
+        <v>387745</v>
       </c>
       <c r="AE265" t="n">
-        <v>799739</v>
+        <v>800077</v>
       </c>
       <c r="AF265" t="inlineStr">
         <is>
@@ -33412,13 +33412,13 @@
         <v>208</v>
       </c>
       <c r="AC266" t="n">
-        <v>14408</v>
+        <v>14410</v>
       </c>
       <c r="AD266" t="n">
-        <v>539696</v>
+        <v>539935</v>
       </c>
       <c r="AE266" t="n">
-        <v>911525</v>
+        <v>912054</v>
       </c>
       <c r="AF266" t="inlineStr">
         <is>
@@ -33529,19 +33529,19 @@
         </is>
       </c>
       <c r="AA267" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB267" t="n">
         <v>42</v>
       </c>
       <c r="AC267" t="n">
-        <v>86255</v>
+        <v>86295</v>
       </c>
       <c r="AD267" t="n">
-        <v>1014558</v>
+        <v>1015015</v>
       </c>
       <c r="AE267" t="n">
-        <v>1965187</v>
+        <v>1966181</v>
       </c>
       <c r="AF267" t="inlineStr">
         <is>
@@ -33648,19 +33648,19 @@
         </is>
       </c>
       <c r="AA268" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AB268" t="n">
         <v>639</v>
       </c>
       <c r="AC268" t="n">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="AD268" t="n">
-        <v>224491</v>
+        <v>224575</v>
       </c>
       <c r="AE268" t="n">
-        <v>396379</v>
+        <v>396555</v>
       </c>
       <c r="AF268" t="inlineStr">
         <is>
@@ -33771,19 +33771,19 @@
         </is>
       </c>
       <c r="AA269" t="n">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AB269" t="n">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="AC269" t="n">
         <v>1388</v>
       </c>
       <c r="AD269" t="n">
-        <v>113308</v>
+        <v>113360</v>
       </c>
       <c r="AE269" t="n">
-        <v>202876</v>
+        <v>203059</v>
       </c>
       <c r="AF269" t="inlineStr">
         <is>
@@ -33900,13 +33900,13 @@
         <v>302</v>
       </c>
       <c r="AC270" t="n">
-        <v>29777</v>
+        <v>29794</v>
       </c>
       <c r="AD270" t="n">
-        <v>384919</v>
+        <v>385173</v>
       </c>
       <c r="AE270" t="n">
-        <v>716578</v>
+        <v>717128</v>
       </c>
       <c r="AF270" t="inlineStr">
         <is>
@@ -34017,19 +34017,19 @@
         </is>
       </c>
       <c r="AA271" t="n">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AB271" t="n">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AC271" t="n">
         <v>3677</v>
       </c>
       <c r="AD271" t="n">
-        <v>99473</v>
+        <v>99506</v>
       </c>
       <c r="AE271" t="n">
-        <v>179014</v>
+        <v>179117</v>
       </c>
       <c r="AF271" t="inlineStr">
         <is>
@@ -34142,13 +34142,13 @@
         <v>341</v>
       </c>
       <c r="AC272" t="n">
-        <v>13625</v>
+        <v>13630</v>
       </c>
       <c r="AD272" t="n">
-        <v>346709</v>
+        <v>346867</v>
       </c>
       <c r="AE272" t="n">
-        <v>671007</v>
+        <v>671385</v>
       </c>
       <c r="AF272" t="inlineStr">
         <is>
@@ -34259,19 +34259,19 @@
         </is>
       </c>
       <c r="AA273" t="n">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="AB273" t="n">
         <v>1419</v>
       </c>
       <c r="AC273" t="n">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="AD273" t="n">
-        <v>72794</v>
+        <v>72806</v>
       </c>
       <c r="AE273" t="n">
-        <v>181163</v>
+        <v>181226</v>
       </c>
       <c r="AF273" t="inlineStr">
         <is>
@@ -34382,19 +34382,19 @@
         </is>
       </c>
       <c r="AA274" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AB274" t="n">
         <v>45</v>
       </c>
       <c r="AC274" t="n">
-        <v>111705</v>
+        <v>111746</v>
       </c>
       <c r="AD274" t="n">
-        <v>1148687</v>
+        <v>1149283</v>
       </c>
       <c r="AE274" t="n">
-        <v>1921298</v>
+        <v>1922324</v>
       </c>
       <c r="AF274" t="inlineStr">
         <is>
@@ -34505,19 +34505,19 @@
         </is>
       </c>
       <c r="AA275" t="n">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AB275" t="n">
         <v>261</v>
       </c>
       <c r="AC275" t="n">
-        <v>16780</v>
+        <v>16786</v>
       </c>
       <c r="AD275" t="n">
-        <v>387605</v>
+        <v>387745</v>
       </c>
       <c r="AE275" t="n">
-        <v>799739</v>
+        <v>800077</v>
       </c>
       <c r="AF275" t="inlineStr">
         <is>
@@ -34628,19 +34628,19 @@
         </is>
       </c>
       <c r="AA276" t="n">
-        <v>2986</v>
+        <v>2968</v>
       </c>
       <c r="AB276" t="n">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="AC276" t="n">
         <v>1379</v>
       </c>
       <c r="AD276" t="n">
-        <v>82208</v>
+        <v>82214</v>
       </c>
       <c r="AE276" t="n">
-        <v>192365</v>
+        <v>192416</v>
       </c>
       <c r="AF276" t="inlineStr">
         <is>
@@ -34751,7 +34751,7 @@
         </is>
       </c>
       <c r="AA277" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AB277" t="n">
         <v>467</v>
@@ -34760,10 +34760,10 @@
         <v>10255</v>
       </c>
       <c r="AD277" t="n">
-        <v>243471</v>
+        <v>243545</v>
       </c>
       <c r="AE277" t="n">
-        <v>512712</v>
+        <v>512957</v>
       </c>
       <c r="AF277" t="inlineStr">
         <is>
@@ -34874,19 +34874,19 @@
         </is>
       </c>
       <c r="AA278" t="n">
-        <v>1856</v>
+        <v>1883</v>
       </c>
       <c r="AB278" t="n">
         <v>1317</v>
       </c>
       <c r="AC278" t="n">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="AD278" t="n">
-        <v>80291</v>
+        <v>80311</v>
       </c>
       <c r="AE278" t="n">
-        <v>196984</v>
+        <v>197088</v>
       </c>
       <c r="AF278" t="inlineStr">
         <is>
@@ -34997,19 +34997,19 @@
         </is>
       </c>
       <c r="AA279" t="n">
-        <v>2813</v>
+        <v>2835</v>
       </c>
       <c r="AB279" t="n">
         <v>943</v>
       </c>
       <c r="AC279" t="n">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="AD279" t="n">
-        <v>131780</v>
+        <v>131797</v>
       </c>
       <c r="AE279" t="n">
-        <v>277596</v>
+        <v>277635</v>
       </c>
       <c r="AF279" t="inlineStr">
         <is>
@@ -35120,19 +35120,19 @@
         </is>
       </c>
       <c r="AA280" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AB280" t="n">
         <v>9</v>
       </c>
       <c r="AC280" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AD280" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AE280" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AF280" t="inlineStr">
         <is>
@@ -35243,7 +35243,7 @@
         </is>
       </c>
       <c r="AA281" t="n">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AB281" t="n">
         <v>944</v>
@@ -35252,10 +35252,10 @@
         <v>4172</v>
       </c>
       <c r="AD281" t="n">
-        <v>85543</v>
+        <v>85567</v>
       </c>
       <c r="AE281" t="n">
-        <v>277422</v>
+        <v>277575</v>
       </c>
       <c r="AF281" t="inlineStr">
         <is>
@@ -35366,19 +35366,19 @@
         </is>
       </c>
       <c r="AA282" t="n">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="AB282" t="n">
         <v>1229</v>
       </c>
       <c r="AC282" t="n">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="AD282" t="n">
-        <v>99948</v>
+        <v>99966</v>
       </c>
       <c r="AE282" t="n">
-        <v>212851</v>
+        <v>212934</v>
       </c>
       <c r="AF282" t="inlineStr">
         <is>
@@ -35489,19 +35489,19 @@
         </is>
       </c>
       <c r="AA283" t="n">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="AB283" t="n">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="AC283" t="n">
         <v>928</v>
       </c>
       <c r="AD283" t="n">
-        <v>42462</v>
+        <v>42472</v>
       </c>
       <c r="AE283" t="n">
-        <v>101995</v>
+        <v>102085</v>
       </c>
       <c r="AF283" t="inlineStr">
         <is>
@@ -35612,19 +35612,19 @@
         </is>
       </c>
       <c r="AA284" t="n">
-        <v>2813</v>
+        <v>2835</v>
       </c>
       <c r="AB284" t="n">
         <v>943</v>
       </c>
       <c r="AC284" t="n">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="AD284" t="n">
-        <v>131780</v>
+        <v>131797</v>
       </c>
       <c r="AE284" t="n">
-        <v>277596</v>
+        <v>277635</v>
       </c>
       <c r="AF284" t="inlineStr">
         <is>
@@ -35735,19 +35735,19 @@
         </is>
       </c>
       <c r="AA285" t="n">
-        <v>3643</v>
+        <v>3617</v>
       </c>
       <c r="AB285" t="n">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="AC285" t="n">
         <v>1281</v>
       </c>
       <c r="AD285" t="n">
-        <v>100497</v>
+        <v>100499</v>
       </c>
       <c r="AE285" t="n">
-        <v>188739</v>
+        <v>188790</v>
       </c>
       <c r="AF285" t="inlineStr">
         <is>
@@ -35862,19 +35862,19 @@
         </is>
       </c>
       <c r="AA286" t="n">
-        <v>4695</v>
+        <v>4670</v>
       </c>
       <c r="AB286" t="n">
         <v>1370</v>
       </c>
       <c r="AC286" t="n">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="AD286" t="n">
-        <v>86305</v>
+        <v>86319</v>
       </c>
       <c r="AE286" t="n">
-        <v>189192</v>
+        <v>189276</v>
       </c>
       <c r="AF286" t="inlineStr">
         <is>
@@ -35991,13 +35991,13 @@
         <v>208</v>
       </c>
       <c r="AC287" t="n">
-        <v>14408</v>
+        <v>14410</v>
       </c>
       <c r="AD287" t="n">
-        <v>539696</v>
+        <v>539935</v>
       </c>
       <c r="AE287" t="n">
-        <v>911525</v>
+        <v>912054</v>
       </c>
       <c r="AF287" t="inlineStr">
         <is>
@@ -36112,19 +36112,19 @@
         </is>
       </c>
       <c r="AA288" t="n">
-        <v>2813</v>
+        <v>2835</v>
       </c>
       <c r="AB288" t="n">
         <v>943</v>
       </c>
       <c r="AC288" t="n">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="AD288" t="n">
-        <v>131780</v>
+        <v>131797</v>
       </c>
       <c r="AE288" t="n">
-        <v>277596</v>
+        <v>277635</v>
       </c>
       <c r="AF288" t="inlineStr">
         <is>
@@ -36239,19 +36239,19 @@
         </is>
       </c>
       <c r="AA289" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB289" t="n">
         <v>42</v>
       </c>
       <c r="AC289" t="n">
-        <v>86255</v>
+        <v>86295</v>
       </c>
       <c r="AD289" t="n">
-        <v>1014558</v>
+        <v>1015015</v>
       </c>
       <c r="AE289" t="n">
-        <v>1965187</v>
+        <v>1966181</v>
       </c>
       <c r="AF289" t="inlineStr">
         <is>
@@ -36362,19 +36362,19 @@
         </is>
       </c>
       <c r="AA290" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AB290" t="n">
         <v>639</v>
       </c>
       <c r="AC290" t="n">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="AD290" t="n">
-        <v>224491</v>
+        <v>224575</v>
       </c>
       <c r="AE290" t="n">
-        <v>396379</v>
+        <v>396555</v>
       </c>
       <c r="AF290" t="inlineStr">
         <is>
@@ -36489,7 +36489,7 @@
         </is>
       </c>
       <c r="AA291" t="n">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AB291" t="n">
         <v>874</v>
@@ -36498,10 +36498,10 @@
         <v>2983</v>
       </c>
       <c r="AD291" t="n">
-        <v>178880</v>
+        <v>178910</v>
       </c>
       <c r="AE291" t="n">
-        <v>304856</v>
+        <v>304988</v>
       </c>
       <c r="AF291" t="inlineStr">
         <is>
@@ -36622,13 +36622,13 @@
         <v>302</v>
       </c>
       <c r="AC292" t="n">
-        <v>29777</v>
+        <v>29794</v>
       </c>
       <c r="AD292" t="n">
-        <v>384919</v>
+        <v>385173</v>
       </c>
       <c r="AE292" t="n">
-        <v>716578</v>
+        <v>717128</v>
       </c>
       <c r="AF292" t="inlineStr">
         <is>
@@ -36743,19 +36743,19 @@
         </is>
       </c>
       <c r="AA293" t="n">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AB293" t="n">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AC293" t="n">
         <v>3677</v>
       </c>
       <c r="AD293" t="n">
-        <v>99473</v>
+        <v>99506</v>
       </c>
       <c r="AE293" t="n">
-        <v>179014</v>
+        <v>179117</v>
       </c>
       <c r="AF293" t="inlineStr">
         <is>
@@ -36870,19 +36870,19 @@
         </is>
       </c>
       <c r="AA294" t="n">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="AB294" t="n">
         <v>1419</v>
       </c>
       <c r="AC294" t="n">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="AD294" t="n">
-        <v>72794</v>
+        <v>72806</v>
       </c>
       <c r="AE294" t="n">
-        <v>181163</v>
+        <v>181226</v>
       </c>
       <c r="AF294" t="inlineStr">
         <is>
@@ -37003,13 +37003,13 @@
         <v>122</v>
       </c>
       <c r="AC295" t="n">
-        <v>57506</v>
+        <v>57568</v>
       </c>
       <c r="AD295" t="n">
-        <v>465965</v>
+        <v>466402</v>
       </c>
       <c r="AE295" t="n">
-        <v>1227446</v>
+        <v>1228459</v>
       </c>
       <c r="AF295" t="inlineStr">
         <is>
@@ -37124,19 +37124,19 @@
         </is>
       </c>
       <c r="AA296" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AB296" t="n">
         <v>9</v>
       </c>
       <c r="AC296" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AD296" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AE296" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AF296" t="inlineStr">
         <is>
@@ -37251,7 +37251,7 @@
         </is>
       </c>
       <c r="AA297" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AB297" t="n">
         <v>467</v>
@@ -37260,10 +37260,10 @@
         <v>10255</v>
       </c>
       <c r="AD297" t="n">
-        <v>243471</v>
+        <v>243545</v>
       </c>
       <c r="AE297" t="n">
-        <v>512712</v>
+        <v>512957</v>
       </c>
       <c r="AF297" t="inlineStr">
         <is>
@@ -37374,19 +37374,19 @@
         </is>
       </c>
       <c r="AA298" t="n">
-        <v>1787</v>
+        <v>1818</v>
       </c>
       <c r="AB298" t="n">
-        <v>3220</v>
+        <v>3222</v>
       </c>
       <c r="AC298" t="n">
         <v>96</v>
       </c>
       <c r="AD298" t="n">
-        <v>28324</v>
+        <v>28326</v>
       </c>
       <c r="AE298" t="n">
-        <v>54310</v>
+        <v>54312</v>
       </c>
       <c r="AF298" t="inlineStr">
         <is>
@@ -37497,19 +37497,19 @@
         </is>
       </c>
       <c r="AA299" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AB299" t="n">
         <v>913</v>
       </c>
       <c r="AC299" t="n">
-        <v>6370</v>
+        <v>6372</v>
       </c>
       <c r="AD299" t="n">
-        <v>141740</v>
+        <v>141779</v>
       </c>
       <c r="AE299" t="n">
-        <v>286236</v>
+        <v>286346</v>
       </c>
       <c r="AF299" t="inlineStr">
         <is>
@@ -37624,19 +37624,19 @@
         </is>
       </c>
       <c r="AA300" t="n">
-        <v>2550</v>
+        <v>2587</v>
       </c>
       <c r="AB300" t="n">
         <v>1695</v>
       </c>
       <c r="AC300" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AD300" t="n">
-        <v>56864</v>
+        <v>56872</v>
       </c>
       <c r="AE300" t="n">
-        <v>146257</v>
+        <v>146304</v>
       </c>
       <c r="AF300" t="inlineStr">
         <is>
@@ -37751,19 +37751,19 @@
         </is>
       </c>
       <c r="AA301" t="n">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AB301" t="n">
         <v>261</v>
       </c>
       <c r="AC301" t="n">
-        <v>16780</v>
+        <v>16786</v>
       </c>
       <c r="AD301" t="n">
-        <v>387605</v>
+        <v>387745</v>
       </c>
       <c r="AE301" t="n">
-        <v>799739</v>
+        <v>800077</v>
       </c>
       <c r="AF301" t="inlineStr">
         <is>
@@ -37878,19 +37878,19 @@
         </is>
       </c>
       <c r="AA302" t="n">
-        <v>2986</v>
+        <v>2968</v>
       </c>
       <c r="AB302" t="n">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="AC302" t="n">
         <v>1379</v>
       </c>
       <c r="AD302" t="n">
-        <v>82208</v>
+        <v>82214</v>
       </c>
       <c r="AE302" t="n">
-        <v>192365</v>
+        <v>192416</v>
       </c>
       <c r="AF302" t="inlineStr">
         <is>
@@ -38005,19 +38005,19 @@
         </is>
       </c>
       <c r="AA303" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AB303" t="n">
         <v>17</v>
       </c>
       <c r="AC303" t="n">
-        <v>237054</v>
+        <v>237229</v>
       </c>
       <c r="AD303" t="n">
-        <v>1433761</v>
+        <v>1434888</v>
       </c>
       <c r="AE303" t="n">
-        <v>2522600</v>
+        <v>2524779</v>
       </c>
       <c r="AF303" t="inlineStr">
         <is>
@@ -38132,19 +38132,19 @@
         </is>
       </c>
       <c r="AA304" t="n">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AB304" t="n">
         <v>716</v>
       </c>
       <c r="AC304" t="n">
-        <v>8827</v>
+        <v>8828</v>
       </c>
       <c r="AD304" t="n">
-        <v>146166</v>
+        <v>146223</v>
       </c>
       <c r="AE304" t="n">
-        <v>359363</v>
+        <v>359562</v>
       </c>
       <c r="AF304" t="inlineStr">
         <is>
@@ -38259,19 +38259,19 @@
         </is>
       </c>
       <c r="AA305" t="n">
-        <v>2045</v>
+        <v>2030</v>
       </c>
       <c r="AB305" t="n">
         <v>4810</v>
       </c>
       <c r="AC305" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AD305" t="n">
-        <v>8273</v>
+        <v>8279</v>
       </c>
       <c r="AE305" t="n">
-        <v>24288</v>
+        <v>24301</v>
       </c>
       <c r="AF305" t="inlineStr">
         <is>
@@ -38386,19 +38386,19 @@
         </is>
       </c>
       <c r="AA306" t="n">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="AB306" t="n">
         <v>638</v>
       </c>
       <c r="AC306" t="n">
-        <v>8547</v>
+        <v>8558</v>
       </c>
       <c r="AD306" t="n">
-        <v>171967</v>
+        <v>172117</v>
       </c>
       <c r="AE306" t="n">
-        <v>396752</v>
+        <v>397130</v>
       </c>
       <c r="AF306" t="inlineStr">
         <is>
@@ -38513,19 +38513,19 @@
         </is>
       </c>
       <c r="AA307" t="n">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AB307" t="n">
         <v>716</v>
       </c>
       <c r="AC307" t="n">
-        <v>8827</v>
+        <v>8828</v>
       </c>
       <c r="AD307" t="n">
-        <v>146166</v>
+        <v>146223</v>
       </c>
       <c r="AE307" t="n">
-        <v>359363</v>
+        <v>359562</v>
       </c>
       <c r="AF307" t="inlineStr">
         <is>
@@ -38640,19 +38640,19 @@
         </is>
       </c>
       <c r="AA308" t="n">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="AB308" t="n">
         <v>1136</v>
       </c>
       <c r="AC308" t="n">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="AD308" t="n">
-        <v>106077</v>
+        <v>106085</v>
       </c>
       <c r="AE308" t="n">
-        <v>232527</v>
+        <v>232604</v>
       </c>
       <c r="AF308" t="inlineStr">
         <is>
@@ -38767,19 +38767,19 @@
         </is>
       </c>
       <c r="AA309" t="n">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="AB309" t="n">
         <v>466</v>
       </c>
       <c r="AC309" t="n">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="AD309" t="n">
-        <v>247023</v>
+        <v>247060</v>
       </c>
       <c r="AE309" t="n">
-        <v>514273</v>
+        <v>514432</v>
       </c>
       <c r="AF309" t="inlineStr">
         <is>
@@ -38894,7 +38894,7 @@
         </is>
       </c>
       <c r="AA310" t="n">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AB310" t="n">
         <v>874</v>
@@ -38903,10 +38903,10 @@
         <v>2983</v>
       </c>
       <c r="AD310" t="n">
-        <v>178880</v>
+        <v>178910</v>
       </c>
       <c r="AE310" t="n">
-        <v>304856</v>
+        <v>304988</v>
       </c>
       <c r="AF310" t="inlineStr">
         <is>
@@ -39021,7 +39021,7 @@
         </is>
       </c>
       <c r="AA311" t="n">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AB311" t="n">
         <v>944</v>
@@ -39030,10 +39030,10 @@
         <v>4172</v>
       </c>
       <c r="AD311" t="n">
-        <v>85543</v>
+        <v>85567</v>
       </c>
       <c r="AE311" t="n">
-        <v>277422</v>
+        <v>277575</v>
       </c>
       <c r="AF311" t="inlineStr">
         <is>
@@ -39154,13 +39154,13 @@
         <v>302</v>
       </c>
       <c r="AC312" t="n">
-        <v>29777</v>
+        <v>29794</v>
       </c>
       <c r="AD312" t="n">
-        <v>384919</v>
+        <v>385173</v>
       </c>
       <c r="AE312" t="n">
-        <v>716578</v>
+        <v>717128</v>
       </c>
       <c r="AF312" t="inlineStr">
         <is>
@@ -39275,19 +39275,19 @@
         </is>
       </c>
       <c r="AA313" t="n">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AB313" t="n">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AC313" t="n">
         <v>3677</v>
       </c>
       <c r="AD313" t="n">
-        <v>99473</v>
+        <v>99506</v>
       </c>
       <c r="AE313" t="n">
-        <v>179014</v>
+        <v>179117</v>
       </c>
       <c r="AF313" t="inlineStr">
         <is>
@@ -39402,19 +39402,19 @@
         </is>
       </c>
       <c r="AA314" t="n">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="AB314" t="n">
         <v>1419</v>
       </c>
       <c r="AC314" t="n">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="AD314" t="n">
-        <v>72794</v>
+        <v>72806</v>
       </c>
       <c r="AE314" t="n">
-        <v>181163</v>
+        <v>181226</v>
       </c>
       <c r="AF314" t="inlineStr">
         <is>
@@ -39529,19 +39529,19 @@
         </is>
       </c>
       <c r="AA315" t="n">
-        <v>2369</v>
+        <v>2353</v>
       </c>
       <c r="AB315" t="n">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="AC315" t="n">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="AD315" t="n">
-        <v>43442</v>
+        <v>43447</v>
       </c>
       <c r="AE315" t="n">
-        <v>107825</v>
+        <v>107867</v>
       </c>
       <c r="AF315" t="inlineStr">
         <is>
@@ -39656,19 +39656,19 @@
         </is>
       </c>
       <c r="AA316" t="n">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="AB316" t="n">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="AC316" t="n">
         <v>1015</v>
       </c>
       <c r="AD316" t="n">
-        <v>34966</v>
+        <v>34977</v>
       </c>
       <c r="AE316" t="n">
-        <v>67980</v>
+        <v>68011</v>
       </c>
       <c r="AF316" t="inlineStr">
         <is>
@@ -39783,7 +39783,7 @@
         </is>
       </c>
       <c r="AA317" t="n">
-        <v>2387</v>
+        <v>2413</v>
       </c>
       <c r="AB317" t="n">
         <v>1996</v>
@@ -39792,10 +39792,10 @@
         <v>1142</v>
       </c>
       <c r="AD317" t="n">
-        <v>52930</v>
+        <v>52934</v>
       </c>
       <c r="AE317" t="n">
-        <v>119163</v>
+        <v>119221</v>
       </c>
       <c r="AF317" t="inlineStr">
         <is>
@@ -39910,19 +39910,19 @@
         </is>
       </c>
       <c r="AA318" t="n">
-        <v>3017</v>
+        <v>3008</v>
       </c>
       <c r="AB318" t="n">
-        <v>3250</v>
+        <v>3252</v>
       </c>
       <c r="AC318" t="n">
         <v>312</v>
       </c>
       <c r="AD318" t="n">
-        <v>26022</v>
+        <v>26024</v>
       </c>
       <c r="AE318" t="n">
-        <v>53129</v>
+        <v>53150</v>
       </c>
       <c r="AF318" t="inlineStr">
         <is>
@@ -40037,19 +40037,19 @@
         </is>
       </c>
       <c r="AA319" t="n">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="AB319" t="n">
         <v>772</v>
       </c>
       <c r="AC319" t="n">
-        <v>5301</v>
+        <v>5303</v>
       </c>
       <c r="AD319" t="n">
-        <v>152563</v>
+        <v>152592</v>
       </c>
       <c r="AE319" t="n">
-        <v>337409</v>
+        <v>337604</v>
       </c>
       <c r="AF319" t="inlineStr">
         <is>
@@ -40164,19 +40164,19 @@
         </is>
       </c>
       <c r="AA320" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AB320" t="n">
         <v>45</v>
       </c>
       <c r="AC320" t="n">
-        <v>111705</v>
+        <v>111746</v>
       </c>
       <c r="AD320" t="n">
-        <v>1148687</v>
+        <v>1149283</v>
       </c>
       <c r="AE320" t="n">
-        <v>1921298</v>
+        <v>1922324</v>
       </c>
       <c r="AF320" t="inlineStr">
         <is>
@@ -40291,7 +40291,7 @@
         </is>
       </c>
       <c r="AA321" t="n">
-        <v>4391</v>
+        <v>4384</v>
       </c>
       <c r="AB321" t="n">
         <v>912</v>
@@ -40300,10 +40300,10 @@
         <v>1465</v>
       </c>
       <c r="AD321" t="n">
-        <v>137883</v>
+        <v>137897</v>
       </c>
       <c r="AE321" t="n">
-        <v>286332</v>
+        <v>286467</v>
       </c>
       <c r="AF321" t="inlineStr">
         <is>
@@ -40414,19 +40414,19 @@
         </is>
       </c>
       <c r="AA322" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AB322" t="n">
         <v>17</v>
       </c>
       <c r="AC322" t="n">
-        <v>237054</v>
+        <v>237229</v>
       </c>
       <c r="AD322" t="n">
-        <v>1433761</v>
+        <v>1434888</v>
       </c>
       <c r="AE322" t="n">
-        <v>2522600</v>
+        <v>2524779</v>
       </c>
       <c r="AF322" t="inlineStr">
         <is>
@@ -40537,19 +40537,19 @@
         </is>
       </c>
       <c r="AA323" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB323" t="n">
         <v>42</v>
       </c>
       <c r="AC323" t="n">
-        <v>86255</v>
+        <v>86295</v>
       </c>
       <c r="AD323" t="n">
-        <v>1014558</v>
+        <v>1015015</v>
       </c>
       <c r="AE323" t="n">
-        <v>1965187</v>
+        <v>1966181</v>
       </c>
       <c r="AF323" t="inlineStr">
         <is>
@@ -40660,19 +40660,19 @@
         </is>
       </c>
       <c r="AA324" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AB324" t="n">
         <v>45</v>
       </c>
       <c r="AC324" t="n">
-        <v>111705</v>
+        <v>111746</v>
       </c>
       <c r="AD324" t="n">
-        <v>1148687</v>
+        <v>1149283</v>
       </c>
       <c r="AE324" t="n">
-        <v>1921298</v>
+        <v>1922324</v>
       </c>
       <c r="AF324" t="inlineStr">
         <is>
@@ -40779,7 +40779,7 @@
         </is>
       </c>
       <c r="AA325" t="n">
-        <v>2060</v>
+        <v>2075</v>
       </c>
       <c r="AB325" t="n">
         <v>964</v>
@@ -40788,10 +40788,10 @@
         <v>766</v>
       </c>
       <c r="AD325" t="n">
-        <v>150590</v>
+        <v>150633</v>
       </c>
       <c r="AE325" t="n">
-        <v>271722</v>
+        <v>271802</v>
       </c>
       <c r="AF325" t="inlineStr">
         <is>
@@ -40814,16 +40814,16 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>172.3</v>
+        <v>172.9</v>
       </c>
       <c r="D326" t="n">
         <v>7.57</v>
       </c>
       <c r="E326" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F326" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G326" t="n">
         <v>28</v>
@@ -40832,16 +40832,16 @@
         <v>28</v>
       </c>
       <c r="I326" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="J326" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="K326" t="n">
         <v>3</v>
       </c>
       <c r="L326" t="n">
-        <v>10384</v>
+        <v>10419</v>
       </c>
       <c r="M326" t="inlineStr">
         <is>
@@ -40906,19 +40906,19 @@
         </is>
       </c>
       <c r="AA326" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AB326" t="n">
         <v>17</v>
       </c>
       <c r="AC326" t="n">
-        <v>237054</v>
+        <v>237229</v>
       </c>
       <c r="AD326" t="n">
-        <v>1433761</v>
+        <v>1434888</v>
       </c>
       <c r="AE326" t="n">
-        <v>2522600</v>
+        <v>2524779</v>
       </c>
       <c r="AF326" t="inlineStr">
         <is>
@@ -40941,16 +40941,16 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>172.3</v>
+        <v>172.9</v>
       </c>
       <c r="D327" t="n">
         <v>7.57</v>
       </c>
       <c r="E327" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F327" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G327" t="n">
         <v>28</v>
@@ -40959,16 +40959,16 @@
         <v>28</v>
       </c>
       <c r="I327" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="J327" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="K327" t="n">
         <v>3</v>
       </c>
       <c r="L327" t="n">
-        <v>10384</v>
+        <v>10419</v>
       </c>
       <c r="M327" t="inlineStr">
         <is>
@@ -41033,19 +41033,19 @@
         </is>
       </c>
       <c r="AA327" t="n">
-        <v>3951</v>
+        <v>3935</v>
       </c>
       <c r="AB327" t="n">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="AC327" t="n">
         <v>472</v>
       </c>
       <c r="AD327" t="n">
-        <v>55031</v>
+        <v>55040</v>
       </c>
       <c r="AE327" t="n">
-        <v>114589</v>
+        <v>114627</v>
       </c>
       <c r="AF327" t="inlineStr">
         <is>
@@ -41068,16 +41068,16 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>172.3</v>
+        <v>172.9</v>
       </c>
       <c r="D328" t="n">
         <v>7.57</v>
       </c>
       <c r="E328" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F328" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G328" t="n">
         <v>28</v>
@@ -41086,16 +41086,16 @@
         <v>28</v>
       </c>
       <c r="I328" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="J328" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="K328" t="n">
         <v>3</v>
       </c>
       <c r="L328" t="n">
-        <v>10384</v>
+        <v>10419</v>
       </c>
       <c r="M328" t="inlineStr">
         <is>
@@ -41162,13 +41162,13 @@
         <v>208</v>
       </c>
       <c r="AC328" t="n">
-        <v>14408</v>
+        <v>14410</v>
       </c>
       <c r="AD328" t="n">
-        <v>539696</v>
+        <v>539935</v>
       </c>
       <c r="AE328" t="n">
-        <v>911525</v>
+        <v>912054</v>
       </c>
       <c r="AF328" t="inlineStr">
         <is>
@@ -41191,16 +41191,16 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>172.3</v>
+        <v>172.9</v>
       </c>
       <c r="D329" t="n">
         <v>7.57</v>
       </c>
       <c r="E329" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F329" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G329" t="n">
         <v>28</v>
@@ -41209,16 +41209,16 @@
         <v>28</v>
       </c>
       <c r="I329" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="J329" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="K329" t="n">
         <v>3</v>
       </c>
       <c r="L329" t="n">
-        <v>10384</v>
+        <v>10419</v>
       </c>
       <c r="M329" t="inlineStr">
         <is>
@@ -41279,19 +41279,19 @@
         </is>
       </c>
       <c r="AA329" t="n">
-        <v>4177</v>
+        <v>4208</v>
       </c>
       <c r="AB329" t="n">
-        <v>2663</v>
+        <v>2667</v>
       </c>
       <c r="AC329" t="n">
         <v>186</v>
       </c>
       <c r="AD329" t="n">
-        <v>42394</v>
+        <v>42403</v>
       </c>
       <c r="AE329" t="n">
-        <v>76339</v>
+        <v>76354</v>
       </c>
       <c r="AF329" t="inlineStr">
         <is>
@@ -41314,16 +41314,16 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>172.3</v>
+        <v>172.9</v>
       </c>
       <c r="D330" t="n">
         <v>7.57</v>
       </c>
       <c r="E330" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F330" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G330" t="n">
         <v>28</v>
@@ -41332,16 +41332,16 @@
         <v>28</v>
       </c>
       <c r="I330" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="J330" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="K330" t="n">
         <v>3</v>
       </c>
       <c r="L330" t="n">
-        <v>10384</v>
+        <v>10419</v>
       </c>
       <c r="M330" t="inlineStr">
         <is>
@@ -41406,19 +41406,19 @@
         </is>
       </c>
       <c r="AA330" t="n">
-        <v>1856</v>
+        <v>1883</v>
       </c>
       <c r="AB330" t="n">
         <v>1317</v>
       </c>
       <c r="AC330" t="n">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="AD330" t="n">
-        <v>80291</v>
+        <v>80311</v>
       </c>
       <c r="AE330" t="n">
-        <v>196984</v>
+        <v>197088</v>
       </c>
       <c r="AF330" t="inlineStr">
         <is>
@@ -41441,16 +41441,16 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>172.3</v>
+        <v>172.9</v>
       </c>
       <c r="D331" t="n">
         <v>7.57</v>
       </c>
       <c r="E331" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F331" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G331" t="n">
         <v>28</v>
@@ -41459,16 +41459,16 @@
         <v>28</v>
       </c>
       <c r="I331" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="J331" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="K331" t="n">
         <v>3</v>
       </c>
       <c r="L331" t="n">
-        <v>10384</v>
+        <v>10419</v>
       </c>
       <c r="M331" t="inlineStr">
         <is>
@@ -41533,19 +41533,19 @@
         </is>
       </c>
       <c r="AA331" t="n">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AB331" t="n">
         <v>716</v>
       </c>
       <c r="AC331" t="n">
-        <v>8827</v>
+        <v>8828</v>
       </c>
       <c r="AD331" t="n">
-        <v>146166</v>
+        <v>146223</v>
       </c>
       <c r="AE331" t="n">
-        <v>359363</v>
+        <v>359562</v>
       </c>
       <c r="AF331" t="inlineStr">
         <is>
@@ -41568,16 +41568,16 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>172.3</v>
+        <v>172.9</v>
       </c>
       <c r="D332" t="n">
         <v>7.57</v>
       </c>
       <c r="E332" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F332" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G332" t="n">
         <v>28</v>
@@ -41586,16 +41586,16 @@
         <v>28</v>
       </c>
       <c r="I332" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="J332" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="K332" t="n">
         <v>3</v>
       </c>
       <c r="L332" t="n">
-        <v>10384</v>
+        <v>10419</v>
       </c>
       <c r="M332" t="inlineStr">
         <is>
@@ -41660,7 +41660,7 @@
         </is>
       </c>
       <c r="AA332" t="n">
-        <v>2458</v>
+        <v>2443</v>
       </c>
       <c r="AB332" t="n">
         <v>484</v>
@@ -41669,10 +41669,10 @@
         <v>4174</v>
       </c>
       <c r="AD332" t="n">
-        <v>260340</v>
+        <v>260389</v>
       </c>
       <c r="AE332" t="n">
-        <v>499813</v>
+        <v>500003</v>
       </c>
       <c r="AF332" t="inlineStr">
         <is>
@@ -41695,16 +41695,16 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>172.3</v>
+        <v>172.9</v>
       </c>
       <c r="D333" t="n">
         <v>7.57</v>
       </c>
       <c r="E333" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F333" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G333" t="n">
         <v>28</v>
@@ -41713,16 +41713,16 @@
         <v>28</v>
       </c>
       <c r="I333" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="J333" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="K333" t="n">
         <v>3</v>
       </c>
       <c r="L333" t="n">
-        <v>10384</v>
+        <v>10419</v>
       </c>
       <c r="M333" t="inlineStr">
         <is>
@@ -41787,19 +41787,19 @@
         </is>
       </c>
       <c r="AA333" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB333" t="n">
         <v>42</v>
       </c>
       <c r="AC333" t="n">
-        <v>86255</v>
+        <v>86295</v>
       </c>
       <c r="AD333" t="n">
-        <v>1014558</v>
+        <v>1015015</v>
       </c>
       <c r="AE333" t="n">
-        <v>1965187</v>
+        <v>1966181</v>
       </c>
       <c r="AF333" t="inlineStr">
         <is>
@@ -41822,16 +41822,16 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>172.3</v>
+        <v>172.9</v>
       </c>
       <c r="D334" t="n">
         <v>7.57</v>
       </c>
       <c r="E334" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F334" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G334" t="n">
         <v>28</v>
@@ -41840,16 +41840,16 @@
         <v>28</v>
       </c>
       <c r="I334" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="J334" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="K334" t="n">
         <v>3</v>
       </c>
       <c r="L334" t="n">
-        <v>10384</v>
+        <v>10419</v>
       </c>
       <c r="M334" t="inlineStr">
         <is>
@@ -41914,7 +41914,7 @@
         </is>
       </c>
       <c r="AA334" t="n">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="AB334" t="n">
         <v>1361</v>
@@ -41923,10 +41923,10 @@
         <v>2067</v>
       </c>
       <c r="AD334" t="n">
-        <v>91608</v>
+        <v>91626</v>
       </c>
       <c r="AE334" t="n">
-        <v>190549</v>
+        <v>190661</v>
       </c>
       <c r="AF334" t="inlineStr">
         <is>
@@ -41949,16 +41949,16 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>172.3</v>
+        <v>172.9</v>
       </c>
       <c r="D335" t="n">
         <v>7.57</v>
       </c>
       <c r="E335" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F335" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G335" t="n">
         <v>28</v>
@@ -41967,16 +41967,16 @@
         <v>28</v>
       </c>
       <c r="I335" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="J335" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="K335" t="n">
         <v>3</v>
       </c>
       <c r="L335" t="n">
-        <v>10384</v>
+        <v>10419</v>
       </c>
       <c r="M335" t="inlineStr">
         <is>
@@ -42041,19 +42041,19 @@
         </is>
       </c>
       <c r="AA335" t="n">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="AB335" t="n">
         <v>466</v>
       </c>
       <c r="AC335" t="n">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="AD335" t="n">
-        <v>247023</v>
+        <v>247060</v>
       </c>
       <c r="AE335" t="n">
-        <v>514273</v>
+        <v>514432</v>
       </c>
       <c r="AF335" t="inlineStr">
         <is>
@@ -42076,16 +42076,16 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>172.3</v>
+        <v>172.9</v>
       </c>
       <c r="D336" t="n">
         <v>7.57</v>
       </c>
       <c r="E336" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F336" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G336" t="n">
         <v>28</v>
@@ -42094,16 +42094,16 @@
         <v>28</v>
       </c>
       <c r="I336" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="J336" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="K336" t="n">
         <v>3</v>
       </c>
       <c r="L336" t="n">
-        <v>10384</v>
+        <v>10419</v>
       </c>
       <c r="M336" t="inlineStr">
         <is>
@@ -42168,19 +42168,19 @@
         </is>
       </c>
       <c r="AA336" t="n">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="AB336" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AC336" t="n">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="AD336" t="n">
-        <v>151482</v>
+        <v>151505</v>
       </c>
       <c r="AE336" t="n">
-        <v>268022</v>
+        <v>268113</v>
       </c>
       <c r="AF336" t="inlineStr">
         <is>
@@ -42203,16 +42203,16 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>172.3</v>
+        <v>172.9</v>
       </c>
       <c r="D337" t="n">
         <v>7.57</v>
       </c>
       <c r="E337" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F337" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G337" t="n">
         <v>28</v>
@@ -42221,16 +42221,16 @@
         <v>28</v>
       </c>
       <c r="I337" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="J337" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="K337" t="n">
         <v>3</v>
       </c>
       <c r="L337" t="n">
-        <v>10384</v>
+        <v>10419</v>
       </c>
       <c r="M337" t="inlineStr">
         <is>
@@ -42295,7 +42295,7 @@
         </is>
       </c>
       <c r="AA337" t="n">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AB337" t="n">
         <v>874</v>
@@ -42304,10 +42304,10 @@
         <v>2983</v>
       </c>
       <c r="AD337" t="n">
-        <v>178880</v>
+        <v>178910</v>
       </c>
       <c r="AE337" t="n">
-        <v>304856</v>
+        <v>304988</v>
       </c>
       <c r="AF337" t="inlineStr">
         <is>
@@ -42418,19 +42418,19 @@
         </is>
       </c>
       <c r="AA338" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AB338" t="n">
         <v>17</v>
       </c>
       <c r="AC338" t="n">
-        <v>237054</v>
+        <v>237229</v>
       </c>
       <c r="AD338" t="n">
-        <v>1433761</v>
+        <v>1434888</v>
       </c>
       <c r="AE338" t="n">
-        <v>2522600</v>
+        <v>2524779</v>
       </c>
       <c r="AF338" t="inlineStr">
         <is>
@@ -42537,19 +42537,19 @@
         </is>
       </c>
       <c r="AA339" t="n">
-        <v>2955</v>
+        <v>2934</v>
       </c>
       <c r="AB339" t="n">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="AC339" t="n">
         <v>260</v>
       </c>
       <c r="AD339" t="n">
-        <v>27834</v>
+        <v>27840</v>
       </c>
       <c r="AE339" t="n">
-        <v>56599</v>
+        <v>56606</v>
       </c>
       <c r="AF339" t="inlineStr">
         <is>
@@ -42660,19 +42660,19 @@
         </is>
       </c>
       <c r="AA340" t="n">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AB340" t="n">
         <v>716</v>
       </c>
       <c r="AC340" t="n">
-        <v>8827</v>
+        <v>8828</v>
       </c>
       <c r="AD340" t="n">
-        <v>146166</v>
+        <v>146223</v>
       </c>
       <c r="AE340" t="n">
-        <v>359363</v>
+        <v>359562</v>
       </c>
       <c r="AF340" t="inlineStr">
         <is>
@@ -42783,7 +42783,7 @@
         </is>
       </c>
       <c r="AA341" t="n">
-        <v>2458</v>
+        <v>2443</v>
       </c>
       <c r="AB341" t="n">
         <v>484</v>
@@ -42792,10 +42792,10 @@
         <v>4174</v>
       </c>
       <c r="AD341" t="n">
-        <v>260340</v>
+        <v>260389</v>
       </c>
       <c r="AE341" t="n">
-        <v>499813</v>
+        <v>500003</v>
       </c>
       <c r="AF341" t="inlineStr">
         <is>
@@ -42906,7 +42906,7 @@
         </is>
       </c>
       <c r="AA342" t="n">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AB342" t="n">
         <v>874</v>
@@ -42915,10 +42915,10 @@
         <v>2983</v>
       </c>
       <c r="AD342" t="n">
-        <v>178880</v>
+        <v>178910</v>
       </c>
       <c r="AE342" t="n">
-        <v>304856</v>
+        <v>304988</v>
       </c>
       <c r="AF342" t="inlineStr">
         <is>
@@ -43031,13 +43031,13 @@
         <v>341</v>
       </c>
       <c r="AC343" t="n">
-        <v>13625</v>
+        <v>13630</v>
       </c>
       <c r="AD343" t="n">
-        <v>346709</v>
+        <v>346867</v>
       </c>
       <c r="AE343" t="n">
-        <v>671007</v>
+        <v>671385</v>
       </c>
       <c r="AF343" t="inlineStr">
         <is>
@@ -43154,13 +43154,13 @@
         <v>122</v>
       </c>
       <c r="AC344" t="n">
-        <v>57506</v>
+        <v>57568</v>
       </c>
       <c r="AD344" t="n">
-        <v>465965</v>
+        <v>466402</v>
       </c>
       <c r="AE344" t="n">
-        <v>1227446</v>
+        <v>1228459</v>
       </c>
       <c r="AF344" t="inlineStr">
         <is>
@@ -43271,19 +43271,19 @@
         </is>
       </c>
       <c r="AA345" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AB345" t="n">
         <v>9</v>
       </c>
       <c r="AC345" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AD345" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AE345" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AF345" t="inlineStr">
         <is>
@@ -43394,7 +43394,7 @@
         </is>
       </c>
       <c r="AA346" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AB346" t="n">
         <v>467</v>
@@ -43403,10 +43403,10 @@
         <v>10255</v>
       </c>
       <c r="AD346" t="n">
-        <v>243471</v>
+        <v>243545</v>
       </c>
       <c r="AE346" t="n">
-        <v>512712</v>
+        <v>512957</v>
       </c>
       <c r="AF346" t="inlineStr">
         <is>
@@ -43513,19 +43513,19 @@
         </is>
       </c>
       <c r="AA347" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AB347" t="n">
         <v>913</v>
       </c>
       <c r="AC347" t="n">
-        <v>6370</v>
+        <v>6372</v>
       </c>
       <c r="AD347" t="n">
-        <v>141740</v>
+        <v>141779</v>
       </c>
       <c r="AE347" t="n">
-        <v>286236</v>
+        <v>286346</v>
       </c>
       <c r="AF347" t="inlineStr">
         <is>
@@ -43632,19 +43632,19 @@
         </is>
       </c>
       <c r="AA348" t="n">
-        <v>1238</v>
+        <v>1226</v>
       </c>
       <c r="AB348" t="n">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="AC348" t="n">
         <v>182</v>
       </c>
       <c r="AD348" t="n">
-        <v>28571</v>
+        <v>28583</v>
       </c>
       <c r="AE348" t="n">
-        <v>50228</v>
+        <v>50248</v>
       </c>
       <c r="AF348" t="inlineStr">
         <is>
@@ -43755,19 +43755,19 @@
         </is>
       </c>
       <c r="AA349" t="n">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="AB349" t="n">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="AC349" t="n">
         <v>3046</v>
       </c>
       <c r="AD349" t="n">
-        <v>86901</v>
+        <v>86921</v>
       </c>
       <c r="AE349" t="n">
-        <v>191982</v>
+        <v>192092</v>
       </c>
       <c r="AF349" t="inlineStr">
         <is>
@@ -43874,19 +43874,19 @@
         </is>
       </c>
       <c r="AA350" t="n">
-        <v>8693</v>
+        <v>8678</v>
       </c>
       <c r="AB350" t="n">
-        <v>3332</v>
+        <v>3337</v>
       </c>
       <c r="AC350" t="n">
         <v>187</v>
       </c>
       <c r="AD350" t="n">
-        <v>27564</v>
+        <v>27567</v>
       </c>
       <c r="AE350" t="n">
-        <v>51207</v>
+        <v>51219</v>
       </c>
       <c r="AF350" t="inlineStr">
         <is>
@@ -43997,19 +43997,19 @@
         </is>
       </c>
       <c r="AA351" t="n">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AB351" t="n">
         <v>261</v>
       </c>
       <c r="AC351" t="n">
-        <v>16780</v>
+        <v>16786</v>
       </c>
       <c r="AD351" t="n">
-        <v>387605</v>
+        <v>387745</v>
       </c>
       <c r="AE351" t="n">
-        <v>799739</v>
+        <v>800077</v>
       </c>
       <c r="AF351" t="inlineStr">
         <is>
@@ -44120,19 +44120,19 @@
         </is>
       </c>
       <c r="AA352" t="n">
-        <v>3176</v>
+        <v>3215</v>
       </c>
       <c r="AB352" t="n">
         <v>1942</v>
       </c>
       <c r="AC352" t="n">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AD352" t="n">
-        <v>45203</v>
+        <v>45220</v>
       </c>
       <c r="AE352" t="n">
-        <v>122688</v>
+        <v>122807</v>
       </c>
       <c r="AF352" t="inlineStr">
         <is>
@@ -44243,19 +44243,19 @@
         </is>
       </c>
       <c r="AA353" t="n">
-        <v>2813</v>
+        <v>2835</v>
       </c>
       <c r="AB353" t="n">
         <v>943</v>
       </c>
       <c r="AC353" t="n">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="AD353" t="n">
-        <v>131780</v>
+        <v>131797</v>
       </c>
       <c r="AE353" t="n">
-        <v>277596</v>
+        <v>277635</v>
       </c>
       <c r="AF353" t="inlineStr">
         <is>
@@ -44366,19 +44366,19 @@
         </is>
       </c>
       <c r="AA354" t="n">
-        <v>4695</v>
+        <v>4670</v>
       </c>
       <c r="AB354" t="n">
         <v>1370</v>
       </c>
       <c r="AC354" t="n">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="AD354" t="n">
-        <v>86305</v>
+        <v>86319</v>
       </c>
       <c r="AE354" t="n">
-        <v>189192</v>
+        <v>189276</v>
       </c>
       <c r="AF354" t="inlineStr">
         <is>
@@ -44489,19 +44489,19 @@
         </is>
       </c>
       <c r="AA355" t="n">
-        <v>2808</v>
+        <v>2829</v>
       </c>
       <c r="AB355" t="n">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="AC355" t="n">
         <v>1150</v>
       </c>
       <c r="AD355" t="n">
-        <v>79400</v>
+        <v>79411</v>
       </c>
       <c r="AE355" t="n">
-        <v>165669</v>
+        <v>165734</v>
       </c>
       <c r="AF355" t="inlineStr">
         <is>
@@ -44612,19 +44612,19 @@
         </is>
       </c>
       <c r="AA356" t="n">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="AB356" t="n">
         <v>638</v>
       </c>
       <c r="AC356" t="n">
-        <v>8547</v>
+        <v>8558</v>
       </c>
       <c r="AD356" t="n">
-        <v>171967</v>
+        <v>172117</v>
       </c>
       <c r="AE356" t="n">
-        <v>396752</v>
+        <v>397130</v>
       </c>
       <c r="AF356" t="inlineStr">
         <is>
@@ -44735,19 +44735,19 @@
         </is>
       </c>
       <c r="AA357" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB357" t="n">
         <v>42</v>
       </c>
       <c r="AC357" t="n">
-        <v>86255</v>
+        <v>86295</v>
       </c>
       <c r="AD357" t="n">
-        <v>1014558</v>
+        <v>1015015</v>
       </c>
       <c r="AE357" t="n">
-        <v>1965187</v>
+        <v>1966181</v>
       </c>
       <c r="AF357" t="inlineStr">
         <is>
@@ -44858,19 +44858,19 @@
         </is>
       </c>
       <c r="AA358" t="n">
-        <v>6887</v>
+        <v>6900</v>
       </c>
       <c r="AB358" t="n">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AC358" t="n">
         <v>360</v>
       </c>
       <c r="AD358" t="n">
-        <v>81363</v>
+        <v>81380</v>
       </c>
       <c r="AE358" t="n">
-        <v>153401</v>
+        <v>153499</v>
       </c>
       <c r="AF358" t="inlineStr">
         <is>
@@ -44981,19 +44981,19 @@
         </is>
       </c>
       <c r="AA359" t="n">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="AB359" t="n">
         <v>466</v>
       </c>
       <c r="AC359" t="n">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="AD359" t="n">
-        <v>247023</v>
+        <v>247060</v>
       </c>
       <c r="AE359" t="n">
-        <v>514273</v>
+        <v>514432</v>
       </c>
       <c r="AF359" t="inlineStr">
         <is>
@@ -45104,19 +45104,19 @@
         </is>
       </c>
       <c r="AA360" t="n">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AB360" t="n">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AC360" t="n">
         <v>3677</v>
       </c>
       <c r="AD360" t="n">
-        <v>99473</v>
+        <v>99506</v>
       </c>
       <c r="AE360" t="n">
-        <v>179014</v>
+        <v>179117</v>
       </c>
       <c r="AF360" t="inlineStr">
         <is>
@@ -45227,19 +45227,19 @@
         </is>
       </c>
       <c r="AA361" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AB361" t="n">
         <v>45</v>
       </c>
       <c r="AC361" t="n">
-        <v>111705</v>
+        <v>111746</v>
       </c>
       <c r="AD361" t="n">
-        <v>1148687</v>
+        <v>1149283</v>
       </c>
       <c r="AE361" t="n">
-        <v>1921298</v>
+        <v>1922324</v>
       </c>
       <c r="AF361" t="inlineStr">
         <is>
@@ -45352,13 +45352,13 @@
         <v>208</v>
       </c>
       <c r="AC362" t="n">
-        <v>14408</v>
+        <v>14410</v>
       </c>
       <c r="AD362" t="n">
-        <v>539696</v>
+        <v>539935</v>
       </c>
       <c r="AE362" t="n">
-        <v>911525</v>
+        <v>912054</v>
       </c>
       <c r="AF362" t="inlineStr">
         <is>
@@ -45469,19 +45469,19 @@
         </is>
       </c>
       <c r="AA363" t="n">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AB363" t="n">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="AC363" t="n">
         <v>1388</v>
       </c>
       <c r="AD363" t="n">
-        <v>113308</v>
+        <v>113360</v>
       </c>
       <c r="AE363" t="n">
-        <v>202876</v>
+        <v>203059</v>
       </c>
       <c r="AF363" t="inlineStr">
         <is>
@@ -45592,19 +45592,19 @@
         </is>
       </c>
       <c r="AA364" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AB364" t="n">
         <v>9</v>
       </c>
       <c r="AC364" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AD364" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AE364" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AF364" t="inlineStr">
         <is>
@@ -45721,13 +45721,13 @@
         <v>122</v>
       </c>
       <c r="AC365" t="n">
-        <v>57506</v>
+        <v>57568</v>
       </c>
       <c r="AD365" t="n">
-        <v>465965</v>
+        <v>466402</v>
       </c>
       <c r="AE365" t="n">
-        <v>1227446</v>
+        <v>1228459</v>
       </c>
       <c r="AF365" t="inlineStr">
         <is>
@@ -45838,19 +45838,19 @@
         </is>
       </c>
       <c r="AA366" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AB366" t="n">
         <v>17</v>
       </c>
       <c r="AC366" t="n">
-        <v>237054</v>
+        <v>237229</v>
       </c>
       <c r="AD366" t="n">
-        <v>1433761</v>
+        <v>1434888</v>
       </c>
       <c r="AE366" t="n">
-        <v>2522600</v>
+        <v>2524779</v>
       </c>
       <c r="AF366" t="inlineStr">
         <is>
